--- a/Dataset/Captions collection/v3_test_captions_collection.xlsx
+++ b/Dataset/Captions collection/v3_test_captions_collection.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X32"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,16 +488,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -506,65 +506,65 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Production of new motor vehicles</t>
+          <t>Production of Chickens, turkeys, chicks, poults</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Dollars</t>
+          <t>Farm product price index (FPPI)</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="L2" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="M2" t="n">
         <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="O2" t="n">
-        <v>55.00000000000001</v>
+        <v>46</v>
       </c>
       <c r="P2" t="n">
-        <v>56.00000000000001</v>
+        <v>62</v>
       </c>
       <c r="Q2" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="R2" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="S2" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="T2" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>The graph shows the production of new motor vehicles in dollars in Canada during 2018. In general the production recorded its highes values during the spring and summer months, reaching a peak during May 2019. The most significant jump of the values during 2018 is between the months of February and March.</t>
+          <t>Production of poultry including chickens, turkeys, chicks and poults reaches its maximum during the month of May with a number of 1215 in Canada. The biggest increase in production of poultry can be observed from February until May, while a drop from May to July takes place. From August until November the production remains quite stable at approximately 1205 and starts decreasing until it reaches its minimum in February below 1190.</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>The graph shows the TKN_About in TKN_UOM in TKN_Geo during TKN_Year. In general the production recorded its highes values during the spring and summer months, reaching a peak during May -118. The most significant jump of the values during TKN_Year is between the months of February and March.</t>
+          <t>Production of poultry including chickens, turkeys, chicks and poults reaches its maximum during the month of May with a number of 100 in  TKN_Geo . The biggest increase in production of poultry can be observed from February until May, while a drop from May to July takes place. From August until November the production remains quite stable at approximately 62 and starts decreasing until it reaches its minimum in February below 4.</t>
         </is>
       </c>
       <c r="W2" t="n">
-        <v>9238766</v>
+        <v>1215</v>
       </c>
       <c r="X2" t="n">
-        <v>4995984</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="3">
@@ -572,10 +572,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
         <v>3</v>
@@ -590,7 +590,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Production of creamery butter</t>
+          <t>Import of creamery butter</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -599,56 +599,56 @@
         </is>
       </c>
       <c r="I3" t="n">
+        <v>34</v>
+      </c>
+      <c r="J3" t="n">
+        <v>39</v>
+      </c>
+      <c r="K3" t="n">
+        <v>79</v>
+      </c>
+      <c r="L3" t="n">
+        <v>41</v>
+      </c>
+      <c r="M3" t="n">
+        <v>33</v>
+      </c>
+      <c r="N3" t="n">
         <v>100</v>
       </c>
-      <c r="J3" t="n">
-        <v>64</v>
-      </c>
-      <c r="K3" t="n">
-        <v>67</v>
-      </c>
-      <c r="L3" t="n">
-        <v>68</v>
-      </c>
-      <c r="M3" t="n">
-        <v>37</v>
-      </c>
-      <c r="N3" t="n">
-        <v>5</v>
-      </c>
       <c r="O3" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>6</v>
+      </c>
+      <c r="S3" t="n">
+        <v>31</v>
+      </c>
+      <c r="T3" t="n">
         <v>30</v>
       </c>
-      <c r="S3" t="n">
-        <v>14</v>
-      </c>
-      <c r="T3" t="n">
-        <v>68</v>
-      </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>Production of creamery butter varies a lot throughout the year. Being mostly stable from February until April with approximately 1000 tonnes of creamery butter, a drop is observed from April until June. The production starts oscillating between June and November, whereas production varies between 8000 to 8500 tonnes. A sharp increase in creamery butter production is taking place from November onwards, reaching its maximum in January with almost 11500 tonnes.</t>
+          <t>The graph describes the import of creamery butter (in tonnes) in Canada during 2017. As can be seen from the graph, the value reports two significant peaks during the month of March and June. The minimum value has been recorded during the month of September. It's also possible to see how the values during January and December do not differ so much from each other.</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>Production of creamery butter varies a lot throughout the year. Being mostly stable from February until April with approximately -175 TKN_UOM of creamery butter, a drop is observed from April until June. The production starts oscillating between June and November, whereas production varies between 12 to 25 TKN_UOM. A sharp increase in creamery butter production is taking place from November onwards, reaching its maximum in January with almost 105 TKN_UOM.</t>
+          <t>The graph describes the TKN_About  (in tonnes) in  TKN_Geo  during  TKN_Year . As can be seen from the graph, the value reports two significant peaks during the month of March and June. The minimum value has been recorded during the month of September. It's also possible to see how the values during January and December do not differ so much from each other.</t>
         </is>
       </c>
       <c r="W3" t="n">
-        <v>11309</v>
+        <v>2554</v>
       </c>
       <c r="X3" t="n">
-        <v>7566</v>
+        <v>668</v>
       </c>
     </row>
     <row r="4">
@@ -656,83 +656,83 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>23</v>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Import of creamery butter</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tonnes</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>34</v>
+      </c>
+      <c r="J4" t="n">
+        <v>39</v>
+      </c>
+      <c r="K4" t="n">
+        <v>79</v>
+      </c>
+      <c r="L4" t="n">
+        <v>41</v>
+      </c>
+      <c r="M4" t="n">
+        <v>33</v>
+      </c>
+      <c r="N4" t="n">
+        <v>100</v>
+      </c>
+      <c r="O4" t="n">
+        <v>21</v>
+      </c>
+      <c r="P4" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6</v>
+      </c>
+      <c r="S4" t="n">
         <v>31</v>
       </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2016</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>House price index</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Index 347</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15</v>
-      </c>
-      <c r="L4" t="n">
-        <v>27</v>
-      </c>
-      <c r="M4" t="n">
-        <v>55.00000000000001</v>
-      </c>
-      <c r="N4" t="n">
-        <v>55.00000000000001</v>
-      </c>
-      <c r="O4" t="n">
-        <v>70</v>
-      </c>
-      <c r="P4" t="n">
-        <v>79</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>79</v>
-      </c>
-      <c r="R4" t="n">
-        <v>94</v>
-      </c>
-      <c r="S4" t="n">
-        <v>97</v>
-      </c>
       <c r="T4" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>The graph shows the values of House price index in Canada during 2016. It's clearly possible to see how it rapidly increased over the year, with really few and light fluctuations. The minimum value has been recorded during January and the maximum one during December.</t>
+          <t>This graph illustrates the Canadian import of creamery butter in 2017. The unit used is tonnes. Import reaches its maximum of over 2500 tonnes during June and its second highes import during the month of March with approximately 2150. After June the import drastically decreases until reaching a minimum of approximately 730 in September. From the months of September until February the import oscillates between approximately 730 and 1300.</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>The graph shows the values TKN_About TKN_UOM in TKN_Geo during TKN_Year. It's clearly possible to see how it rapidly increased over the year, with really few and light fluctuations. The minimum value has been recorded during January and the maximum one during December.</t>
+          <t>This graph illustrates the Canadian TKN_About  in  TKN_Year . The unit used is TKN_UOM . Import reaches its maximum of over 97 TKN_UOM  during June and its second highes import during the month of March with approximately 79. After June the import drastically decreases until reaching a minimum of approximately 3 in September. From the months of September until February the import oscillates between approximately 3 and 34.</t>
         </is>
       </c>
       <c r="W4" t="n">
-        <v>1000</v>
+        <v>2554</v>
       </c>
       <c r="X4" t="n">
-        <v>967</v>
+        <v>668</v>
       </c>
     </row>
     <row r="5">
@@ -740,13 +740,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
         <v>2017</v>
@@ -758,65 +758,65 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>House and land price index</t>
+          <t>Total Canadian vehicles returning to the country</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Index 347</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J5" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="L5" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M5" t="n">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="N5" t="n">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="O5" t="n">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="P5" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="Q5" t="n">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="R5" t="n">
-        <v>97</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="S5" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="T5" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>The following graph shows information about the house and land price index in Canada during 2017. As can be seen from the graph, the index have been steadily increasing its value over the year. There are few light fluctuations but no peaks or dips have been recorded.</t>
+          <t>This graph indicates the number of total Canadian vehicles returning to the country in 2017. The lowest number of approximately 1400000 can be observed during the month of February. Over the following 4 months a steady increase takes place. As can be seen from the graph there is sharp rise of returning vehicles from June until August. After August the number steadily decreases until reaching its minimum in February.</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>The following graph shows information about TKN_About TKN_UOM in TKN_Geo during TKN_Year. As can be seen from the graph, the index have been steadily increasing its value over the year. There are few light fluctuations but no peaks or dips have been recorded.</t>
+          <t>This graph indicates the TKN_UOM  of TKN_About  in  TKN_Year . The lowest TKN_UOM  of approximately 3 can be observed during the month of February. Over the following 4 months a steady increase takes place. As can be seen from the graph there is sharp rise of returning vehicles from June until August. After August the TKN_UOM  steadily decreases until reaching its minimum in February.</t>
         </is>
       </c>
       <c r="W5" t="n">
-        <v>1033</v>
+        <v>2329640</v>
       </c>
       <c r="X5" t="n">
-        <v>1001</v>
+        <v>1374721</v>
       </c>
     </row>
     <row r="6">
@@ -824,16 +824,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -842,65 +842,65 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Production of new motor vehicles</t>
+          <t>Production of Chickens, turkeys, chicks, poults</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Units</t>
+          <t>Farm product price index (FPPI)</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J6" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="L6" t="n">
+        <v>69</v>
+      </c>
+      <c r="M6" t="n">
         <v>100</v>
       </c>
-      <c r="M6" t="n">
-        <v>94</v>
-      </c>
       <c r="N6" t="n">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="O6" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="P6" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="Q6" t="n">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="R6" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="S6" t="n">
-        <v>56.99999999999999</v>
+        <v>65</v>
       </c>
       <c r="T6" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>The following line chart provides useful information about the production of new motor vehicles in Canada during 2016. The production value is quantified using the number of units producted. During the first few months of the year the production rapidly increased, reaching the maximum value over 2016 in March. After that, over the next few months, the production of new motor vehicles slightly decreased until the end of the year.</t>
+          <t>The graph shows the production of chickens, turkeys, chicks, and poults in Canada in the year of 2017. There is one data entry for each month of the year. Production is measured by the farm product price index. The x-axis shows the months, the y-axis the index ranging from 1190 to 1215. There is a high in May (index of 1215) and a low in February (a bit below 1190).</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>The following line chart provides useful information about the TKN_About in TKN_Geo during TKN_Year. The production value is quantified using the number of TKN_UOM producted. During the first few months of the year the production rapidly increased, reaching the maximum value over TKN_Year in March. After that, over the next few months, the TKN_About slightly decreased until the end of the year.</t>
+          <t>The graph shows the TKN_About  in  TKN_Geo  in the year of  TKN_Year . There is one data entry for each month of the year. Production is measured TKN_UOM  index. The x-axis shows the months, the y-axis the index ranging from 4 to 100. There is a high in May (index of 100) and a low in February (a bit below 4).</t>
         </is>
       </c>
       <c r="W6" t="n">
-        <v>203557</v>
+        <v>1215</v>
       </c>
       <c r="X6" t="n">
-        <v>110686</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="7">
@@ -908,83 +908,83 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
+        <v>86</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Production of Oats</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Tonnes</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>56.99999999999999</v>
+      </c>
+      <c r="J7" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2016</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Total softwood and hardwood, stocks</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Cubic metres</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>70</v>
-      </c>
-      <c r="J7" t="n">
-        <v>77</v>
-      </c>
       <c r="K7" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="L7" t="n">
+        <v>40</v>
+      </c>
+      <c r="M7" t="n">
+        <v>46</v>
+      </c>
+      <c r="N7" t="n">
+        <v>18</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>91</v>
+      </c>
+      <c r="R7" t="n">
         <v>100</v>
       </c>
-      <c r="M7" t="n">
-        <v>97</v>
-      </c>
-      <c r="N7" t="n">
-        <v>46</v>
-      </c>
-      <c r="O7" t="n">
-        <v>20</v>
-      </c>
-      <c r="P7" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>18</v>
-      </c>
-      <c r="R7" t="n">
-        <v>14</v>
-      </c>
       <c r="S7" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>Softwood and hardwood stock totals in Canada during each month of 2016.  The total rose from slightly over 72000 cubic meters in January to over 75000 cubic meters in April.  It then experienced a drop to less than 68000 cubic meters from May to July, after which it continued to decline until reaching a minimum level in December of under 66000 cubic meters.</t>
+          <t>The graph illustrates the production of oats in Canada for the year 2018. There are sharp decreases in production for the months of February, July and November.</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>Softwood and hardwood stock totals in TKN_Geo during each month of TKN_Year.  The total rose from slightly over TKN_UOM meters in January to over 97 cubic meters in April.  It then experienced a drop to less than 24 cubic meters from May to July, after which it continued to decline until reaching a minimum level in December of under 4 cubic meters.</t>
+          <t>The graph illustrates the TKN_About  in  TKN_Geo  for the year  TKN_Year . There are sharp decreases in production for the months of February, July and November.</t>
         </is>
       </c>
       <c r="W7" t="n">
-        <v>75270</v>
+        <v>213885</v>
       </c>
       <c r="X7" t="n">
-        <v>65659</v>
+        <v>80033</v>
       </c>
     </row>
     <row r="8">
@@ -992,16 +992,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="C8" t="n">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -1010,65 +1010,65 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Total United States vehicles entering</t>
+          <t>Total softwood, production</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Number</t>
+          <t>Cubic metres</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="L8" t="n">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="M8" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="O8" t="n">
-        <v>100</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="P8" t="n">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="Q8" t="n">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="R8" t="n">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="S8" t="n">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="T8" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>As it can be seen from the graph, the total number of Unitated States vehicles entering in Canada during 2017 presented the highest values during the summer period. In particular, the maximum value has been reached during July. The month with less United States vehicles entering Canada over the year has been February 2017.</t>
+          <t>The graph indicates the number of cubic meters of soft wood production in Canada for 2018. Production is highest in spring time and drops to its lowest in December.</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>As it can be seen from the graph, the total TKN_UOM of Unitated States vehicles entering in TKN_Geo during TKN_Year presented the highest values during the summer period. In particular, the maximum value has been reached during July. The month with less TKN_About TKN_Geo over the year has been February TKN_Year.</t>
+          <t>The graph indicates the number TKN_UOM  meters of soft TKN_About  in  TKN_Geo  for  TKN_Year . Production is highest in spring time and drops to its lowest in December.</t>
         </is>
       </c>
       <c r="W8" t="n">
-        <v>1183620</v>
+        <v>5839.2</v>
       </c>
       <c r="X8" t="n">
-        <v>611250</v>
+        <v>4238.6</v>
       </c>
     </row>
     <row r="9">
@@ -1076,16 +1076,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="C9" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1094,65 +1094,65 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Production of new motor vehicles</t>
+          <t>Production of Unprocessed milk</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Units</t>
+          <t>Farm product price index (FPPI)</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L9" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="M9" t="n">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="N9" t="n">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="O9" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="Q9" t="n">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="R9" t="n">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="S9" t="n">
-        <v>56.99999999999999</v>
+        <v>71</v>
       </c>
       <c r="T9" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>This graph represents the production of new motor vehicles in Canada during 2016. Production starts very low in January and undergoes a sharp increase until it reaches its peak of over 200000 motor vehicles in April. The following months production decreases, being almost steady at 175000 from July until September. Production gradually decreases until December.</t>
+          <t>The line chart illustrates the production of unprocessed milk in Canada during 2017. The values are described using the farm product price index (FPPI). It's clearly possible to see two main peaks over the year, one during February and one during October. At the same time, during the summer the production significantly decreased, reaching its minimum value during the month of July.</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>This graph represents the TKN_About in TKN_Geo during TKN_Year. Production starts very low in January and undergoes a sharp increase until it reaches its peak of over 96 motor vehicles in April. The following months production decreases, being almost steady at 69 from July until September. Production gradually decreases until December.</t>
+          <t>The line chart illustrates the TKN_About  in  TKN_Geo  during  TKN_Year . The values are described using TKN_UOM  (FPPI). It's clearly possible to see two main peaks over the year, one during February and one during October. At the same time, during the summer the production significantly decreased, reaching its minimum value during the month of July.</t>
         </is>
       </c>
       <c r="W9" t="n">
-        <v>203557</v>
+        <v>1095</v>
       </c>
       <c r="X9" t="n">
-        <v>110686</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="10">
@@ -1160,16 +1160,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="C10" t="n">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1178,65 +1178,65 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>House and land price index</t>
+          <t>Total United States vehicles entering</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Index 347</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>19</v>
       </c>
       <c r="L10" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="M10" t="n">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="N10" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O10" t="n">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="P10" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="Q10" t="n">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="R10" t="n">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="S10" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="T10" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>This graph represents the house and land price index of Canada in 2017. Overall a content increase can be observed throughout the year, starting at approximately 1001 in January and increasing of uptimes to 1033 in November where it plateaus like that until December.</t>
+          <t>The graph shows the the number of United States vehicles entering Canada in 2018. As illustrated form the graph, the spring months show the amount of cars steadily increasing and reaching their highest point in summer. For the following months, in fall, the amount of cars entering decline and reach their lowest point in winter.</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>This graph represents TKN_About TKN_UOM of TKN_Geo in TKN_Year. Overall a content increase can be observed throughout the year, starting at approximately 0 in January and increasing of uptimes to 100 in November where it plateaus like that until December.</t>
+          <t>The graph shows the the TKN_UOM  of TKN_About   TKN_Geo  in  TKN_Year . As illustrated form the graph, the spring months show the amount of cars steadily increasing and reaching their highest point in summer. For the following months, in fall, the amount of cars entering decline and reach their lowest point in winter.</t>
         </is>
       </c>
       <c r="W10" t="n">
-        <v>1033</v>
+        <v>1193966</v>
       </c>
       <c r="X10" t="n">
-        <v>1001</v>
+        <v>572090</v>
       </c>
     </row>
     <row r="11">
@@ -1244,16 +1244,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="C11" t="n">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E11" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1262,65 +1262,65 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Production of Unprocessed milk</t>
+          <t>Production of Malt</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Farm product price index (FPPI)</t>
+          <t>Tonnes</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J11" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K11" t="n">
-        <v>55.00000000000001</v>
+        <v>100</v>
       </c>
       <c r="L11" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M11" t="n">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="N11" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="P11" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="Q11" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="S11" t="n">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="T11" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>This chart represents the production of unprocessed milk of Canada in 2016. Whereas the production oscillates from January until June ranging from 1045 until 1065 a minimum value of below 1020 is observed during July. The following three months a sharp increase is taking place and reaching a value of approximately 1110. The production stays almost consistent from October until December.</t>
+          <t>The following line chart is about the production of malt in Canada 2018. The values are reported using tonnes as unit of measure. It clearly possible to see several peaks and dips of production over the year. In particular, the maximum values have been recorded during March and July. It's also illustrated a significant fall of the production from July to August.</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>This chart represents the TKN_About of TKN_Geo in TKN_Year. Whereas the production oscillates from January until June ranging from 34 until 53 a minimum value of below 9 is observed during July. The following three months a sharp increase is taking place and reaching a value of approximately 98. The production stays almost consistent from October until December.</t>
+          <t>The following line chart is about the TKN_About  in  TKN_Geo   TKN_Year . The values are reported using TKN_UOM  as unit of measure. It clearly possible to see several peaks and dips of production over the year. In particular, the maximum values have been recorded during March and July. It's also illustrated a significant fall of the production from July to August.</t>
         </is>
       </c>
       <c r="W11" t="n">
-        <v>1112</v>
+        <v>54960</v>
       </c>
       <c r="X11" t="n">
-        <v>1011</v>
+        <v>42553</v>
       </c>
     </row>
     <row r="12">
@@ -1328,16 +1328,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1346,65 +1346,65 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Total hardwood, production</t>
+          <t>Price index: Servers</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cubic metres</t>
+          <t>ID 708</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>57.99999999999999</v>
+        <v>81</v>
       </c>
       <c r="J12" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="K12" t="n">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="L12" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="N12" t="n">
+        <v>81</v>
+      </c>
+      <c r="O12" t="n">
         <v>100</v>
       </c>
-      <c r="O12" t="n">
-        <v>20</v>
-      </c>
       <c r="P12" t="n">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="Q12" t="n">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="R12" t="n">
-        <v>55.00000000000001</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="S12" t="n">
         <v>69</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>This line chart depicts the total hardwood production in cubic metres of Canada in 2016. Production starts at approximately 1370 cubic metres during January, after which a moderate increase can be observed until reaching about 1580 in March. Production remains steady at 1450 during April and May, after which the maximum production is achieved in June with 1600 cubic metres. There is a sharp drop in July, a rapid increase until November until the minimum value of approximately 1050 is reached in December.</t>
+          <t>The graph depicts a price index of servers in Canada. Data was taken from 2018. One can observe a decline in the price index within the first months of the year, reaching a low of 997 in April. Throughout the following three months, the index increased to 1013 in July. Values decreased steadily until October (1006) and stayed the same for November and December (1008).</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>This line chart depicts the TKN_About in TKN_UOM of TKN_Geo in TKN_Year. Production starts at approximately 59 TKN_UOM during January, after which a moderate increase can be observed until reaching about 95 in March. Production remains steady at 73 during April and May, after which the maximum production is achieved in June with 99 TKN_UOM. There is a sharp drop in July, a rapid increase until November until the minimum value of approximately 3 is reached in December.</t>
+          <t>The graph depicts a TKN_About  in  TKN_Geo . Data was taken from  TKN_Year . One can observe a decline in the price index within the first months of the year, reaching a low of 0 in April. Throughout the following three months, the index increased to 100 in July. Values decreased steadily until October (56) and stayed the same for November and December (69).</t>
         </is>
       </c>
       <c r="W12" t="n">
-        <v>1606</v>
+        <v>1013</v>
       </c>
       <c r="X12" t="n">
-        <v>1030</v>
+        <v>997</v>
       </c>
     </row>
     <row r="13">
@@ -1412,16 +1412,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C13" t="n">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1430,65 +1430,65 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Price index: Tablet computers</t>
+          <t>Total farm production index</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>ID 588</t>
+          <t>Farm product price index (FPPI)</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="J13" t="n">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="K13" t="n">
+        <v>48</v>
+      </c>
+      <c r="L13" t="n">
+        <v>32</v>
+      </c>
+      <c r="M13" t="n">
+        <v>57.99999999999999</v>
+      </c>
+      <c r="N13" t="n">
+        <v>87</v>
+      </c>
+      <c r="O13" t="n">
         <v>100</v>
       </c>
-      <c r="L13" t="n">
-        <v>56.00000000000001</v>
-      </c>
-      <c r="M13" t="n">
-        <v>47</v>
-      </c>
-      <c r="N13" t="n">
-        <v>65</v>
-      </c>
-      <c r="O13" t="n">
-        <v>65</v>
-      </c>
       <c r="P13" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q13" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="R13" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="S13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>The chart shows the variation of tablet computers prices in Canada during the year 2017. Except for some punctual oscillations, the overall trend is of price reduction throughout the period considered.</t>
+          <t>The following line chart is decribing the trend of the total farm production index in Canada during 2018. The values are described using the farm product price index (FPPI). It can be seen from the graph that the values are frequently fluctuating over the year, showing several peaks and dips. The most significant peak was recorded during the month of July 2018. The lowest values have been recorded during the months of September and December.</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>The chart shows the variation TKN_About prices in TKN_Geo during the year TKN_Year. Except for some punctual oscillations, the overall trend is of price reduction throughout the period considered.</t>
+          <t>The following line chart is decribing the trend of the TKN_About  in  TKN_Geo  during  TKN_Year . The values are described using TKN_UOM  (FPPI). It can be seen from the graph that the values are frequently fluctuating over the year, showing several peaks and dips. The most significant peak was recorded during the month of July  TKN_Year . The lowest values have been recorded during the months of September and December.</t>
         </is>
       </c>
       <c r="W13" t="n">
-        <v>891</v>
+        <v>1337</v>
       </c>
       <c r="X13" t="n">
-        <v>829</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="14">
@@ -1496,16 +1496,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E14" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1514,65 +1514,65 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Total hardwood, production</t>
+          <t>Production of Wheat flour</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cubic metres</t>
+          <t>Tonnes</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>57.99999999999999</v>
+        <v>50</v>
       </c>
       <c r="J14" t="n">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="K14" t="n">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="L14" t="n">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="M14" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="N14" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="O14" t="n">
-        <v>20</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="P14" t="n">
         <v>20</v>
       </c>
       <c r="Q14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R14" t="n">
-        <v>55.00000000000001</v>
+        <v>26</v>
       </c>
       <c r="S14" t="n">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>The following line chart describes the production values of total hardwood in Canada during 2016. The unit of measurement of the data is cubic metres. The production showed several peaks during the year, mainly during March, June and November. Furthermore, a significant drop has been recorded between the months of June and July.</t>
+          <t>The graph shows the values about the production of Wheat flour in Canada over 2018. The values are described using tonnes as unit of measure. There is a drop from January to February. It's possible to see how the production value rapidly increased from February to April. Then from April to December the production value slightly decreased, showing few light fluctuations.</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>The following line chart describes the TKN_About hardwood in TKN_Geo during TKN_Year. The unit of measurement of the data TKN_UOM metres. The production showed several peaks during the year, mainly during March, June and November. Furthermore, a significant drop has been recorded between the months of June and July.</t>
+          <t>The graph shows the values about the TKN_About  in  TKN_Geo  over  TKN_Year . The values are described using TKN_UOM  as unit of measure. There is a drop from January to February. It's possible to see how the production value rapidly increased from February to April. Then from April to December the production value slightly decreased, showing few light fluctuations.</t>
         </is>
       </c>
       <c r="W14" t="n">
-        <v>1606</v>
+        <v>42184</v>
       </c>
       <c r="X14" t="n">
-        <v>1030</v>
+        <v>17805</v>
       </c>
     </row>
     <row r="15">
@@ -1580,13 +1580,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="C15" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
         <v>2018</v>
@@ -1598,65 +1598,65 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Production of new motor vehicles</t>
+          <t>Total farm production index</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Dollars</t>
+          <t>Farm product price index (FPPI)</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="K15" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="L15" t="n">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="M15" t="n">
+        <v>57.99999999999999</v>
+      </c>
+      <c r="N15" t="n">
+        <v>87</v>
+      </c>
+      <c r="O15" t="n">
         <v>100</v>
       </c>
-      <c r="N15" t="n">
-        <v>82</v>
-      </c>
-      <c r="O15" t="n">
-        <v>55.00000000000001</v>
-      </c>
       <c r="P15" t="n">
-        <v>56.00000000000001</v>
+        <v>40</v>
       </c>
       <c r="Q15" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R15" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="S15" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="T15" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>A plot chart about production of new motor vehicles.</t>
+          <t>This chart shows how the Canadian total farm production index varies by month throughout 2018. We see a distinctive season pattern. Production starts at a middling level in the first three months of the year, before a rapid increase from April to July, where it reaches a peak. A quick descent then follow into the fall, with a low point in September, a small rebound in October, and falling again in December.</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>A plot chart about TKN_About vehicles.</t>
+          <t>This chart shows how the TKN_UOM  varies by month throughout  TKN_Year . We see a distinctive TKN_About  starts at a middling level in the first three months of the year, before a rapid increase from April to July, where it reaches a peak. A quick descent then follow into the fall, with a low point in September, a small rebound in October, and falling again in December.</t>
         </is>
       </c>
       <c r="W15" t="n">
-        <v>9238766</v>
+        <v>1337</v>
       </c>
       <c r="X15" t="n">
-        <v>4995984</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="16">
@@ -1664,16 +1664,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="C16" t="n">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1682,65 +1682,65 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Price index: Tablet computers</t>
+          <t>Commercial software prince index</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>ID 588</t>
+          <t>ID 185</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J16" t="n">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K16" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="L16" t="n">
-        <v>56.00000000000001</v>
+        <v>16</v>
       </c>
       <c r="M16" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="N16" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="P16" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="Q16" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="R16" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="S16" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>As it's possible to see from the graph, the tablet computers price index in Canada rapidly decreased over 2017. Few fluctuations have been reported over the year. The maximum value has been recorded during March and the minimum during December 2017.</t>
+          <t>A line chart about the price index concerning the commercial software in Canada, 2016. The index dropped from 1218 to stabilizes around 1185 by the month of April.</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>As it's possible to see from the graph, the TKN_About index in TKN_Geo rapidly decreased over TKN_Year. Few fluctuations have been reported over the year. The maximum value has been recorded during March and the minimum during December TKN_Year.</t>
+          <t>A line chart about the price TKN_About  in  TKN_Geo ,  TKN_Year . The index dropped from 100 to stabilizes around 23 by the month of April.</t>
         </is>
       </c>
       <c r="W16" t="n">
-        <v>891</v>
+        <v>1218</v>
       </c>
       <c r="X16" t="n">
-        <v>829</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="17">
@@ -1748,83 +1748,83 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C17" t="n">
+        <v>76</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Price index: Servers</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>ID 708</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>81</v>
       </c>
-      <c r="D17" t="n">
-        <v>8</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2017</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Total United States vehicles entering</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Number</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>3</v>
-      </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="K17" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="N17" t="n">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="O17" t="n">
         <v>100</v>
       </c>
       <c r="P17" t="n">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q17" t="n">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="R17" t="n">
-        <v>29</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="S17" t="n">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="T17" t="n">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>A chart showing the number of vehicles from the United States entering Canada sorted by month and showing the significant peak in the summer months.</t>
+          <t>Servers price index in 2018 from April to July has sharply increased.</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>A chart showing the TKN_UOM of TKN_About TKN_Geo sorted by month and showing the significant peak in the summer months.</t>
+          <t>Servers price index in  TKN_Year  from April to July has sharply increased.</t>
         </is>
       </c>
       <c r="W17" t="n">
-        <v>1183620</v>
+        <v>1013</v>
       </c>
       <c r="X17" t="n">
-        <v>611250</v>
+        <v>997</v>
       </c>
     </row>
     <row r="18">
@@ -1832,16 +1832,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C18" t="n">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E18" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1850,65 +1850,65 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>House and land price index</t>
+          <t>Production of Malt</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Index 347</t>
+          <t>Tonnes</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J18" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="K18" t="n">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="L18" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M18" t="n">
         <v>66</v>
       </c>
       <c r="N18" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="O18" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P18" t="n">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="Q18" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="S18" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="T18" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>Continuous increase of the house and land price index in Canada during the year 2017.</t>
+          <t>Malt production incredibly decrease from July 2018 to August 2018.</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Continuous increase of TKN_About TKN_UOM in TKN_Geo during the year TKN_Year.</t>
+          <t>Malt production incredibly decrease from July  TKN_Year  to August  TKN_Year .</t>
         </is>
       </c>
       <c r="W18" t="n">
-        <v>1033</v>
+        <v>54960</v>
       </c>
       <c r="X18" t="n">
-        <v>1001</v>
+        <v>42553</v>
       </c>
     </row>
     <row r="19">
@@ -1916,16 +1916,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C19" t="n">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1934,65 +1934,65 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Price index: Tablet computers</t>
+          <t>Commercial software prince index</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>ID 588</t>
+          <t>ID 185</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J19" t="n">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K19" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="L19" t="n">
-        <v>56.00000000000001</v>
+        <v>16</v>
       </c>
       <c r="M19" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="N19" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="P19" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="Q19" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="R19" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="S19" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>The graph shows a general downward trend of the price of Tablet computers over the year 2017 in Canada. There was a slight price climb in the middle of the year. As this is a price index and the y-axis is missing, one can only assume a relative decrease in price.</t>
+          <t>A line chart about the Commercial software prince index in Canada in the year 2016. Values   are analyzed in the different months of the year. With index values   ranging from less than 1180 to more than 1220. The maximum value is reached in at the beginning of the year (Jan) and then decreasing.</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>The graph shows a general downward trend of the TKN_About over the year TKN_Year in TKN_Geo. There was a slight price climb in the middle of the year. As this is a price index and the y-axis is missing, one can only assume a relative decrease in price.</t>
+          <t>A line chart about the TKN_About  in  TKN_Geo  in the year  TKN_Year . Values   are analyzed in the different months of the year. With index values   ranging from less than 12 to more than 105. The maximum value is reached in at the beginning of the year (Jan) and then decreasing.</t>
         </is>
       </c>
       <c r="W19" t="n">
-        <v>891</v>
+        <v>1218</v>
       </c>
       <c r="X19" t="n">
-        <v>829</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="20">
@@ -2000,13 +2000,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C20" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
         <v>2017</v>
@@ -2018,65 +2018,65 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Price index: Tablet computers</t>
+          <t>Total Canadian vehicles returning to the country</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>ID 588</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="J20" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>33</v>
+      </c>
+      <c r="L20" t="n">
+        <v>43</v>
+      </c>
+      <c r="M20" t="n">
+        <v>48</v>
+      </c>
+      <c r="N20" t="n">
+        <v>50</v>
+      </c>
+      <c r="O20" t="n">
+        <v>78</v>
+      </c>
+      <c r="P20" t="n">
         <v>100</v>
       </c>
-      <c r="L20" t="n">
-        <v>56.00000000000001</v>
-      </c>
-      <c r="M20" t="n">
-        <v>47</v>
-      </c>
-      <c r="N20" t="n">
-        <v>65</v>
-      </c>
-      <c r="O20" t="n">
-        <v>65</v>
-      </c>
-      <c r="P20" t="n">
-        <v>39</v>
-      </c>
       <c r="Q20" t="n">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="R20" t="n">
-        <v>18</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="S20" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>The graph showes the anual price index of tablet computers in the year 2017. The price in the first thre month is very high, especially in March. The following month ist drops and increase again in June and stays constant till July. Afterwards it decrease continusliy till December. Over the whole year there is a decreasing trend.</t>
+          <t>The graph shows the trend of the total number of Canadian vehicles returning to Canada during the year 2017. The number drops between january and february and shows the minimum value in february. From february on it increases and shows the maximum value in august. Between august and december the number decreases continuously.</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>The graph showes the anual TKN_About in the year TKN_Year. The price in the first thre month is very high, especially in March. The following month ist drops and increase again in June and stays constant till July. Afterwards it decrease continusliy till December. Over the whole year there is a decreasing trend.</t>
+          <t>The graph shows the trend of the total TKN_UOM  of Canadian vehicles returning to  TKN_Geo  during the year  TKN_Year . The TKN_UOM  drops between january and february and shows the minimum value in february. From february on it increases and shows the maximum value in august. Between august and december the TKN_UOM  decreases continuously.</t>
         </is>
       </c>
       <c r="W20" t="n">
-        <v>891</v>
+        <v>2329640</v>
       </c>
       <c r="X20" t="n">
-        <v>829</v>
+        <v>1374721</v>
       </c>
     </row>
     <row r="21">
@@ -2084,13 +2084,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="C21" t="n">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
         <v>2017</v>
@@ -2102,65 +2102,65 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Production of creamery butter</t>
+          <t>Production of Unprocessed milk</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Tonnes</t>
+          <t>Farm product price index (FPPI)</t>
         </is>
       </c>
       <c r="I21" t="n">
+        <v>56.99999999999999</v>
+      </c>
+      <c r="J21" t="n">
         <v>100</v>
-      </c>
-      <c r="J21" t="n">
-        <v>64</v>
       </c>
       <c r="K21" t="n">
         <v>67</v>
       </c>
       <c r="L21" t="n">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="M21" t="n">
+        <v>31</v>
+      </c>
+      <c r="N21" t="n">
+        <v>16</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q21" t="n">
         <v>37</v>
       </c>
-      <c r="N21" t="n">
-        <v>5</v>
-      </c>
-      <c r="O21" t="n">
-        <v>24</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>4</v>
-      </c>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="S21" t="n">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="T21" t="n">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>The graph showes production of creamery butter in tonnes in the year 2017. The highest production is in January with around 11450 tonnes. It decreases in February and stay nearly constant till April. Afterwards it drops constanously and rapidly till june. It increase agin in july till it drop again in August to the minimal production of creamery butter. Till the end of the year it increase beside a small drop in November.</t>
+          <t>Graph that describes the production of unprocessed milk in Canada in 2017. The production in October and February is the highest, while there is a significant drop the following two months of each. The production slightly rises in May but it then plunges until July, where the lowest value can be seen. After that month, there is a steady increase until October.</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>The graph showes TKN_About in TKN_UOM in the year TKN_Year. The highest production is in January with around 104 TKN_UOM. It decreases in February and stay nearly constant till April. Afterwards it drops constanously and rapidly till june. It increase agin in july till it drop again in August to the minimal TKN_About. Till the end of the year it increase beside a small drop in November.</t>
+          <t>Graph that describes the TKN_About  in  TKN_Geo  in  TKN_Year . The production in October and February is the highest, while there is a significant drop the following two months of each. The production slightly rises in May but it then plunges until July, where the lowest value can be seen. After that month, there is a steady increase until October.</t>
         </is>
       </c>
       <c r="W21" t="n">
-        <v>11309</v>
+        <v>1095</v>
       </c>
       <c r="X21" t="n">
-        <v>7566</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="22">
@@ -2168,16 +2168,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="C22" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -2186,65 +2186,65 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>House price index</t>
+          <t>Total softwood, production</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Index 347</t>
+          <t>Cubic metres</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="J22" t="n">
-        <v>9</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="L22" t="n">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="M22" t="n">
-        <v>55.00000000000001</v>
+        <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>55.00000000000001</v>
+        <v>74</v>
       </c>
       <c r="O22" t="n">
-        <v>70</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="P22" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="Q22" t="n">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="R22" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="S22" t="n">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="T22" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>The graph shows the house price index increasing over the year. It stayed the same for the mon of May and September but was increasing continuously throughout the year otherwise.</t>
+          <t>Total softwood production in cubic meters in Canada in 2018 is shown in the graph. Production in January starts at roughly 5650 m3, and it shrinks the next month. In March, this value goes back up and remains steady until May. It plunges until July to the same value as in February and then it oscilates between this value and the one in January until November to drop again to 4200 m3 in December.</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>The graph shows TKN_About TKN_UOM increasing over the year. It stayed the same for the mon of May and September but was increasing continuously throughout the year otherwise.</t>
+          <t>Total softwood production TKN_UOM  meters in  TKN_Geo  in  TKN_Year  is shown in the graph. Production in January starts at roughly 88 m3, and it shrinks the next month. In March, this value goes back up and remains steady until May. It plunges until July to the same value as in February and then it oscilates between this value and the one in January until November to drop again to -2 m3 in December.</t>
         </is>
       </c>
       <c r="W22" t="n">
-        <v>1000</v>
+        <v>5839.2</v>
       </c>
       <c r="X22" t="n">
-        <v>967</v>
+        <v>4238.6</v>
       </c>
     </row>
     <row r="23">
@@ -2252,16 +2252,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="C23" t="n">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E23" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -2270,65 +2270,65 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Production of Unprocessed milk</t>
+          <t>Production of Oats</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Farm product price index (FPPI)</t>
+          <t>Tonnes</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>34</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="J23" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="K23" t="n">
-        <v>55.00000000000001</v>
+        <v>40</v>
       </c>
       <c r="L23" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M23" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N23" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q23" t="n">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="R23" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="S23" t="n">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="T23" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>The provided graph depicts the changes in the production of unprocessed milk in Canada in 2016. The first value sits at 1045 in January, giving way to a slight increase to 1068 that is followed by a decline back to 1046 in April. A short rise follows in may but its crashing to 1010 in July. The following months show a steep increase till October, followed by a slow and steady rise till December.</t>
+          <t>This graph shows the monthly amount of oats produced in Canada in 2018 in tonnes. Oat production stayed within the range of 80000 and 210000 tonnes each month. While most months averaged production at around 140000 tonnes, February, June and July saw dips in production to around 90000 tonnes and the fall months saw a higher harvest, 16000 and above 200000 tonnes consecutively.</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>The provided graph depicts the changes in the TKN_About in TKN_Geo in TKN_Year. The first value sits at 34 in January, giving way to a slight increase to 56 that is followed by a decline back to 35 in April. A short rise follows in may but its crashing to -1 in July. The following months show a steep increase till October, followed by a slow and steady rise till December.</t>
+          <t>This graph shows the monthly amount TKN_About  produced in  TKN_Geo  in  TKN_Year  in TKN_UOM . Oat production stayed within the range of 0 and 97 TKN_UOM  each month. While most months averaged production at around 45 TKN_UOM , February, June and July saw dips in production to around 7 TKN_UOM  and the fall months saw a higher harvest, -48 and above 90 TKN_UOM  consecutively.</t>
         </is>
       </c>
       <c r="W23" t="n">
-        <v>1112</v>
+        <v>213885</v>
       </c>
       <c r="X23" t="n">
-        <v>1011</v>
+        <v>80033</v>
       </c>
     </row>
     <row r="24">
@@ -2336,16 +2336,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="C24" t="n">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E24" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -2354,65 +2354,65 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>House price index</t>
+          <t>Production of Wheat flour</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Index 347</t>
+          <t>Tonnes</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K24" t="n">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="L24" t="n">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="M24" t="n">
-        <v>55.00000000000001</v>
+        <v>66</v>
       </c>
       <c r="N24" t="n">
-        <v>55.00000000000001</v>
+        <v>71</v>
       </c>
       <c r="O24" t="n">
-        <v>70</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="P24" t="n">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q24" t="n">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="R24" t="n">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="S24" t="n">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="T24" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>The graph indicates the house price index in canada in the year 2016. As shown the index increases during the hole year until he reaches the maximum of 1.000 in December. Unfortunately, you can not say more about this graph.</t>
+          <t>The accompanying graph shows the yearly developement of wheat flower production in tonnes in 2018. The starting point in January is around 30000 tons, with an increase to peak production  in April with over 43000 tons and a following decline to just under 35000 tons. After a slight increase the production plummited to just over 20000 tons in September and fell to its lowest point of around 17000 tons in December.</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>The graph indicates TKN_About TKN_UOM in canada in the year TKN_Year. As shown the index increases during the hole year until he reaches the maximum of 1.000 in December. Unfortunately, you can not say more about this graph.</t>
+          <t>The accompanying graph shows the yearly developement TKN_About  in TKN_UOM  in  TKN_Year . The starting point in January is around 50 tons, with an increase to peak production  in April with over 103 tons and a following decline to just under 71 tons. After a slight increase the production plummited to just over 9 tons in September and fell to its lowest point of around -3 tons in December.</t>
         </is>
       </c>
       <c r="W24" t="n">
-        <v>1000</v>
+        <v>42184</v>
       </c>
       <c r="X24" t="n">
-        <v>967</v>
+        <v>17805</v>
       </c>
     </row>
     <row r="25">
@@ -2420,61 +2420,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="C25" t="n">
+        <v>89</v>
+      </c>
+      <c r="D25" t="n">
+        <v>9</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Production of Wheat flour</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Tonnes</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>50</v>
+      </c>
+      <c r="J25" t="n">
         <v>10</v>
       </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>2016</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Total softwood and hardwood, stocks</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Cubic metres</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>70</v>
-      </c>
-      <c r="J25" t="n">
-        <v>77</v>
-      </c>
       <c r="K25" t="n">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="L25" t="n">
         <v>100</v>
       </c>
       <c r="M25" t="n">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="N25" t="n">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="O25" t="n">
+        <v>56.99999999999999</v>
+      </c>
+      <c r="P25" t="n">
         <v>20</v>
       </c>
-      <c r="P25" t="n">
-        <v>19</v>
-      </c>
       <c r="Q25" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="R25" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="S25" t="n">
         <v>14</v>
@@ -2484,19 +2484,19 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>It illustrates the stocks of softwood and hardwood in Canada during 2016 using cubic metres as unit of measurement. From January to April has been recorded a slightly increase. The value significantly dropped from May to July, and then it remain steady for the last months of the year. The minimum value has been recorded during the month of December.</t>
+          <t>The graph shows the production of wheat flour (in tonnes) in Canada in the year 2018. Production is very different over the year. While a significant decline in production can be observed from January to February, production continues to rise until April, reaching its annual maximum of more than 42000 tonnes. This is followed by a more or less constant decline, until in December with 10000 tonnes the minimum of production is reached.</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>It illustrates the TKN_About hardwood in TKN_Geo during TKN_Year using TKN_UOM as unit of measurement. From January to April has been recorded a slightly increase. The value significantly dropped from May to July, and then it remain steady for the last months of the year. The minimum value has been recorded during the month of December.</t>
+          <t>The graph shows the TKN_About  (in TKN_UOM ) in  TKN_Geo  in the year  TKN_Year . Production is very different over the year. While a significant decline in production can be observed from January to February, production continues to rise until April, reaching its annual maximum of more than 99 TKN_UOM . This is followed by a more or less constant decline, until in December with -32 TKN_UOM  the minimum of production is reached.</t>
         </is>
       </c>
       <c r="W25" t="n">
-        <v>75270</v>
+        <v>42184</v>
       </c>
       <c r="X25" t="n">
-        <v>65659</v>
+        <v>17805</v>
       </c>
     </row>
     <row r="26">
@@ -2504,16 +2504,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C26" t="n">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E26" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -2522,65 +2522,65 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Production of Unprocessed milk</t>
+          <t>Total United States vehicles entering</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Farm product price index (FPPI)</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>19</v>
+      </c>
+      <c r="L26" t="n">
+        <v>15</v>
+      </c>
+      <c r="M26" t="n">
+        <v>42</v>
+      </c>
+      <c r="N26" t="n">
+        <v>75</v>
+      </c>
+      <c r="O26" t="n">
+        <v>99</v>
+      </c>
+      <c r="P26" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>52</v>
+      </c>
+      <c r="R26" t="n">
         <v>34</v>
       </c>
-      <c r="J26" t="n">
-        <v>37</v>
-      </c>
-      <c r="K26" t="n">
-        <v>55.00000000000001</v>
-      </c>
-      <c r="L26" t="n">
-        <v>35</v>
-      </c>
-      <c r="M26" t="n">
-        <v>49</v>
-      </c>
-      <c r="N26" t="n">
-        <v>34</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>72</v>
-      </c>
-      <c r="R26" t="n">
-        <v>98</v>
-      </c>
       <c r="S26" t="n">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="T26" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>A graph showing the farm product price index over the course of the year 2016 in Canada. It shows a significant price drop in July followed by a steady increase of the FPPPI until October.</t>
+          <t>The displayed chart shows the total number of vehicles entering Canada during 2018. It's possible to see how the highest values have been recorded during the spring and summer months. In particular, the maximum number of cars entering Canada has been reached July and a August. The months with minimum values have been January and February.</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>A graph showing TKN_UOM over TKN_About the year TKN_Year in TKN_Geo. It shows a significant price drop in July followed by a steady increase of the FPPPI until October.</t>
+          <t>The displayed chart shows the total TKN_UOM  of vehicles entering  TKN_Geo  during  TKN_Year . It's possible to see how the highest values have been recorded during the spring and summer months. In particular, the maximum TKN_UOM  of cars entering  TKN_Geo  has been reached July and a August. The months with minimum values have been January and February.</t>
         </is>
       </c>
       <c r="W26" t="n">
-        <v>1112</v>
+        <v>1193966</v>
       </c>
       <c r="X26" t="n">
-        <v>1011</v>
+        <v>572090</v>
       </c>
     </row>
     <row r="27">
@@ -2588,16 +2588,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C27" t="n">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E27" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -2606,65 +2606,65 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Production of creamery butter</t>
+          <t>Total United States vehicles entering</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Tonnes</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>19</v>
+      </c>
+      <c r="L27" t="n">
+        <v>15</v>
+      </c>
+      <c r="M27" t="n">
+        <v>42</v>
+      </c>
+      <c r="N27" t="n">
+        <v>75</v>
+      </c>
+      <c r="O27" t="n">
+        <v>99</v>
+      </c>
+      <c r="P27" t="n">
         <v>100</v>
       </c>
-      <c r="J27" t="n">
-        <v>64</v>
-      </c>
-      <c r="K27" t="n">
-        <v>67</v>
-      </c>
-      <c r="L27" t="n">
-        <v>68</v>
-      </c>
-      <c r="M27" t="n">
-        <v>37</v>
-      </c>
-      <c r="N27" t="n">
-        <v>5</v>
-      </c>
-      <c r="O27" t="n">
-        <v>24</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
       <c r="Q27" t="n">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="R27" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="S27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T27" t="n">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>Production of creamery decreased sharply in Canada in the period January-June from 11500 to about 8000. Then it was kind of stable, slightly fluctuating until November, with a rapid growth in December, reaching 1000 by the end of the year.</t>
+          <t>The graph indicates the entering vehicles from the united states in canada in the year of 2018. It is noticeable that the number is rising sharply by the middle of the year, reaching a maximum of 1200000 in August. Then the value is strong again until the end of the year.</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Production of creamery decreased sharply in TKN_Geo in the period January-June from 105 to about 12. Then it was kind of stable, slightly fluctuating until November, with a rapid growth in December, reaching -175 by the end of the year.</t>
+          <t>The graph indicates the TKN_About  in canada in the year of  TKN_Year . It is noticeable that the TKN_UOM  is rising sharply by the middle of the year, reaching a maximum of 101 in August. Then the value is strong again until the end of the year.</t>
         </is>
       </c>
       <c r="W27" t="n">
-        <v>11309</v>
+        <v>1193966</v>
       </c>
       <c r="X27" t="n">
-        <v>7566</v>
+        <v>572090</v>
       </c>
     </row>
     <row r="28">
@@ -2672,16 +2672,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="C28" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E28" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -2690,65 +2690,65 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Production of new motor vehicles</t>
+          <t>Production of Chickens, turkeys, chicks, poults</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Units</t>
+          <t>Farm product price index (FPPI)</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J28" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="L28" t="n">
+        <v>69</v>
+      </c>
+      <c r="M28" t="n">
         <v>100</v>
       </c>
-      <c r="M28" t="n">
-        <v>94</v>
-      </c>
       <c r="N28" t="n">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="O28" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="P28" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="Q28" t="n">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="R28" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="S28" t="n">
-        <v>56.99999999999999</v>
+        <v>65</v>
       </c>
       <c r="T28" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>As it's shown in the graph, the production of new motor vehicles in Canada during 2016 rapidly increased fom January to April. After that, it slowly slide down from April until the end of the year. The maximum number of new motor vehicles in Canada during 2016 was in April.</t>
+          <t>2017: Production of chickens, turkeys, chicks, poults in Canada, with a peak in may and the lowest production in february.</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>As it's shown in the graph, the TKN_About in TKN_Geo during TKN_Year rapidly increased fom January to April. After that, it slowly slide down from April until the end of the year. The maximum number of new motor vehicles in TKN_Geo during TKN_Year was in April.</t>
+          <t>TKN_Year : TKN_About  in  TKN_Geo , with a peak in may and the lowest production in february.</t>
         </is>
       </c>
       <c r="W28" t="n">
-        <v>203557</v>
+        <v>1215</v>
       </c>
       <c r="X28" t="n">
-        <v>110686</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="29">
@@ -2756,83 +2756,83 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Import of creamery butter</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Tonnes</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
         <v>34</v>
       </c>
-      <c r="D29" t="n">
-        <v>4</v>
-      </c>
-      <c r="E29" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Production of new motor vehicles</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Dollars</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="K29" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="L29" t="n">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="M29" t="n">
+        <v>33</v>
+      </c>
+      <c r="N29" t="n">
         <v>100</v>
       </c>
-      <c r="N29" t="n">
-        <v>82</v>
-      </c>
       <c r="O29" t="n">
-        <v>55.00000000000001</v>
+        <v>21</v>
       </c>
       <c r="P29" t="n">
-        <v>56.00000000000001</v>
+        <v>16</v>
       </c>
       <c r="Q29" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="S29" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="T29" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>The production of new motor vehicles in Canada of 2018 is shown in this figure. The unit given is dollars. Production shows its lowest value in January at 0.5. Following this production experiences a sharp increase, until reaching its maximum of approximately 0.93 in May. Production gradually decreases from May until July, plateauing from July until September around 0.75. There is a steady decline from September until December, reaching a value of around 0.54.</t>
+          <t>This is a line graph showing the total 2017 imports of creamery butter to Canada in Tonnes. The graph has significant fluctuations between each month. There is a substantial spike in June, which was the peak month at over 2500 tonnes. There is also a clear dip in September, which was the lowest month at under 750 tonnes.</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>The TKN_About in TKN_Geo of TKN_Year is shown in this figure. The unit given is dollars. Production shows its lowest value in January at 0.5. Following this production experiences a sharp increase, until reaching its maximum of approximately 0.93 in May. Production gradually decreases from May until July, plateauing from July until September around 0.75. There is a steady decline from September until December, reaching a value of around 0.54.</t>
+          <t>This is a line graph showing the total  TKN_Year  imports TKN_About  to  TKN_Geo  in  TKN_UOM . The graph has significant fluctuations between each month. There is a substantial spike in June, which was the peak month at over 97 tonnes. There is also a clear dip in September, which was the lowest month at under 4 tonnes.</t>
         </is>
       </c>
       <c r="W29" t="n">
-        <v>9238766</v>
+        <v>2554</v>
       </c>
       <c r="X29" t="n">
-        <v>4995984</v>
+        <v>668</v>
       </c>
     </row>
     <row r="30">
@@ -2840,16 +2840,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>289</v>
+        <v>237</v>
       </c>
       <c r="C30" t="n">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D30" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E30" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -2858,65 +2858,65 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Total United States vehicles entering</t>
+          <t>Commercial software prince index</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Number</t>
+          <t>ID 185</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="K30" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="L30" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M30" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="N30" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="P30" t="n">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="Q30" t="n">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="R30" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="S30" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="T30" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>The total number of United States vehicles returning presents a steep growth over the first half of the year. In particular, it starts to grow during the month of February until reaching its peak during July 2017. After that, it slightly start to decrease over the last few months of the year. The lowest value of the year was registered during February 2017.</t>
+          <t>The commercial software price index in Canada decreased over 2016. It's clearly possible to see how it rapidly drop from January to April. After that, the price index values have been fluctuating for most of the year.</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>The TKN_About returning presents a steep growth over the first half of the year. In particular, it starts to grow during the month of February until reaching its peak during July TKN_Year. After that, it slightly start to decrease over the last few months of the year. The lowest value of the year was registered during February TKN_Year.</t>
+          <t>The TKN_About  in  TKN_Geo  decreased over  TKN_Year . It's clearly possible to see how it rapidly drop from January to April. After that, the price index values have been fluctuating for most of the year.</t>
         </is>
       </c>
       <c r="W30" t="n">
-        <v>1183620</v>
+        <v>1218</v>
       </c>
       <c r="X30" t="n">
-        <v>611250</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="31">
@@ -2924,16 +2924,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Total hardwood, production</t>
+          <t>Total softwood, production</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2951,56 +2951,56 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>57.99999999999999</v>
+        <v>87</v>
       </c>
       <c r="J31" t="n">
-        <v>65</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="K31" t="n">
+        <v>92</v>
+      </c>
+      <c r="L31" t="n">
         <v>94</v>
       </c>
-      <c r="L31" t="n">
-        <v>72</v>
-      </c>
       <c r="M31" t="n">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="N31" t="n">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="O31" t="n">
-        <v>20</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="P31" t="n">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="Q31" t="n">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="R31" t="n">
-        <v>55.00000000000001</v>
+        <v>88</v>
       </c>
       <c r="S31" t="n">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>The values about hardwood production in Canada have been strongly flactuating over the 2016. The most significant peak was recorded during June. At the same time, the lower value was during December.  It's also possible to see a huge drop of the production value between the months of June and July.</t>
+          <t>This graph depicts the total Canadian softwood production in cubic metres in 2018. The unit given is cubic metres. Production starts at around 5600 in January and drops to approximately 5180 in February. It then fluctuates around 5800 between the months of March and May, until it drops back to same production numbers of February during July. Production of softwood fluctuates between July until October, reaching around 5600. Afterwards a sharp decline can be observed until December, which marks the lowest production numbers for this year at around 4200.</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>The values about TKN_About in TKN_Geo have been strongly flactuating over the TKN_Year. The most significant peak was recorded during June. At the same time, the lower value was during December.  It's also possible to see a huge drop of the production value between the months of June and July.</t>
+          <t>This graph depicts the TKN_About  in TKN_UOM  in  TKN_Year . The unit given is TKN_UOM . Production starts at around 85 in January and drops to approximately 59 in February. It then fluctuates around 98 between the months of March and May, until it drops back to same production numbers of February during July. Production of softwood fluctuates between July until October, reaching around 85. Afterwards a sharp decline can be observed until December, which marks the lowest production numbers for this year at around -2.</t>
         </is>
       </c>
       <c r="W31" t="n">
-        <v>1606</v>
+        <v>5839.2</v>
       </c>
       <c r="X31" t="n">
-        <v>1030</v>
+        <v>4238.6</v>
       </c>
     </row>
     <row r="32">
@@ -3008,83 +3008,503 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="C32" t="n">
+        <v>35</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Total farm production index</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Farm product price index (FPPI)</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>33</v>
+      </c>
+      <c r="J32" t="n">
+        <v>38</v>
+      </c>
+      <c r="K32" t="n">
+        <v>48</v>
+      </c>
+      <c r="L32" t="n">
+        <v>32</v>
+      </c>
+      <c r="M32" t="n">
+        <v>57.99999999999999</v>
+      </c>
+      <c r="N32" t="n">
+        <v>87</v>
+      </c>
+      <c r="O32" t="n">
+        <v>100</v>
+      </c>
+      <c r="P32" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>28</v>
+      </c>
+      <c r="S32" t="n">
+        <v>13</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>This graph illustrates values about the total farm production index in Canada during 2018. Those values are described using the farm product price index (FPPI). It's clearly possible to see how the maximum values of production are registered during the summer months. In particular, the highest production value was during July 2018. At the same time, the lowest one was in December.</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>This graph illustrates values about the TKN_About  in  TKN_Geo  during  TKN_Year . Those values are described using TKN_UOM  (FPPI). It's clearly possible to see how the maximum values of production are registered during the summer months. In particular, the highest production value was during July  TKN_Year . At the same time, the lowest one was in December.</t>
+        </is>
+      </c>
+      <c r="W32" t="n">
+        <v>1337</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>284</v>
+      </c>
+      <c r="C33" t="n">
+        <v>76</v>
+      </c>
+      <c r="D33" t="n">
+        <v>7</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Price index: Servers</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>ID 708</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>81</v>
+      </c>
+      <c r="J33" t="n">
+        <v>38</v>
+      </c>
+      <c r="K33" t="n">
+        <v>25</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>6</v>
+      </c>
+      <c r="N33" t="n">
+        <v>81</v>
+      </c>
+      <c r="O33" t="n">
+        <v>100</v>
+      </c>
+      <c r="P33" t="n">
+        <v>88</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>69</v>
+      </c>
+      <c r="R33" t="n">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="S33" t="n">
+        <v>69</v>
+      </c>
+      <c r="T33" t="n">
+        <v>69</v>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>This figure represents the Canadian price index of servers in 2018. The price index starts off at 1010 during January, and keeps decreasing throughout the following months, until it reaches its minimum value of below 998 in April. From then on there is a sharp increase, peaking in July at above 1012. During the following months a moderate decrease is experienced until October. The price index remains unchanged during November and December at 1008.</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>This figure represents the Canadian TKN_About  in  TKN_Year . The price index starts off at 81 during January, and keeps decreasing throughout the following months, until it reaches its minimum value of below 6 in April. From then on there is a sharp increase, peaking in July at above 94. During the following months a moderate decrease is experienced until October. The price index remains unchanged during November and December at 69.</t>
+        </is>
+      </c>
+      <c r="W33" t="n">
+        <v>1013</v>
+      </c>
+      <c r="X33" t="n">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>287</v>
+      </c>
+      <c r="C34" t="n">
+        <v>90</v>
+      </c>
+      <c r="D34" t="n">
+        <v>9</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Production of Malt</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Tonnes</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>35</v>
+      </c>
+      <c r="J34" t="n">
+        <v>33</v>
+      </c>
+      <c r="K34" t="n">
+        <v>100</v>
+      </c>
+      <c r="L34" t="n">
+        <v>39</v>
+      </c>
+      <c r="M34" t="n">
+        <v>66</v>
+      </c>
+      <c r="N34" t="n">
+        <v>80</v>
+      </c>
+      <c r="O34" t="n">
+        <v>86</v>
+      </c>
+      <c r="P34" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>15</v>
+      </c>
+      <c r="S34" t="n">
+        <v>22</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>The production of malt in Canada reported some strong oscillations of the value during 2018. As it's possible to see from the graph, several peaks and dips have been registered. The most significant peaks were during March and July. The most considerable dips during September and December. Furthermore, a marked drop of the production value was registered between July and August 2018.</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>The TKN_About  in  TKN_Geo  reported some strong oscillations of the value during  TKN_Year . As it's possible to see from the graph, several peaks and dips have been registered. The most significant peaks were during March and July. The most considerable dips during September and December. Furthermore, a marked drop of the production value was registered between July and August  TKN_Year .</t>
+        </is>
+      </c>
+      <c r="W34" t="n">
+        <v>54960</v>
+      </c>
+      <c r="X34" t="n">
+        <v>42553</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>293</v>
+      </c>
+      <c r="C35" t="n">
+        <v>86</v>
+      </c>
+      <c r="D35" t="n">
+        <v>9</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Production of Oats</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Tonnes</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>56.99999999999999</v>
+      </c>
+      <c r="J35" t="n">
         <v>10</v>
       </c>
-      <c r="D32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" t="n">
-        <v>2016</v>
-      </c>
-      <c r="F32" t="inlineStr">
+      <c r="K35" t="n">
+        <v>40</v>
+      </c>
+      <c r="L35" t="n">
+        <v>40</v>
+      </c>
+      <c r="M35" t="n">
+        <v>46</v>
+      </c>
+      <c r="N35" t="n">
+        <v>18</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>91</v>
+      </c>
+      <c r="R35" t="n">
+        <v>100</v>
+      </c>
+      <c r="S35" t="n">
+        <v>40</v>
+      </c>
+      <c r="T35" t="n">
+        <v>44</v>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>The following graph depicts the Canadian production of oats in tonnes during 2018. In January approximately 160000 tonnes were produced, after which a sharp drop can be observed for February, reaching slightly below 100000. Production remain mostly stable throughout March to May, with the lowest production coming up in July at 80000. Production sharply increases during the following months, until it peaks in October at approximately 210000. Following this there is a drop, and production remains almost unchanged during November and December at 140000.</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>The following graph depicts the Canadian TKN_About  in TKN_UOM  during  TKN_Year . In January approximately 60 TKN_UOM  were produced, after which a sharp drop can be observed for February, reaching slightly below 15. Production remain mostly stable throughout March to May, with the lowest production coming up in July at 0. Production sharply increases during the following months, until it peaks in October at approximately 97. Following this there is a drop, and production remains almost unchanged during November and December at 45.</t>
+        </is>
+      </c>
+      <c r="W35" t="n">
+        <v>213885</v>
+      </c>
+      <c r="X35" t="n">
+        <v>80033</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>298</v>
+      </c>
+      <c r="C36" t="n">
+        <v>78</v>
+      </c>
+      <c r="D36" t="n">
+        <v>8</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F36" t="inlineStr">
         <is>
           <t>Canada</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Total softwood and hardwood, stocks</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Cubic metres</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>70</v>
-      </c>
-      <c r="J32" t="n">
-        <v>77</v>
-      </c>
-      <c r="K32" t="n">
-        <v>85</v>
-      </c>
-      <c r="L32" t="n">
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Total Canadian vehicles returning to the country</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Number</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>15</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>33</v>
+      </c>
+      <c r="L36" t="n">
+        <v>43</v>
+      </c>
+      <c r="M36" t="n">
+        <v>48</v>
+      </c>
+      <c r="N36" t="n">
+        <v>50</v>
+      </c>
+      <c r="O36" t="n">
+        <v>78</v>
+      </c>
+      <c r="P36" t="n">
         <v>100</v>
       </c>
-      <c r="M32" t="n">
-        <v>97</v>
-      </c>
-      <c r="N32" t="n">
-        <v>46</v>
-      </c>
-      <c r="O32" t="n">
-        <v>20</v>
-      </c>
-      <c r="P32" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>18</v>
-      </c>
-      <c r="R32" t="n">
-        <v>14</v>
-      </c>
-      <c r="S32" t="n">
-        <v>14</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>The value about softwood and hardwoock stocks in Canada rapidly increased during the first months of 2016. After that, a considerable drop was recorded between the months of May and July. During the last months of the year the softwood and hardwood stocks slowly declined. The minimum value has been reached during the month of December.</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>The value about TKN_About in TKN_Geo rapidly increased during the first months of TKN_Year. After that, a considerable drop was recorded between the months of May and July. During the last months of the year the softwood and hardwood stocks slowly declined. The minimum value has been reached during the month of December.</t>
-        </is>
-      </c>
-      <c r="W32" t="n">
-        <v>75270</v>
-      </c>
-      <c r="X32" t="n">
-        <v>65659</v>
+      <c r="Q36" t="n">
+        <v>64</v>
+      </c>
+      <c r="R36" t="n">
+        <v>55.00000000000001</v>
+      </c>
+      <c r="S36" t="n">
+        <v>41</v>
+      </c>
+      <c r="T36" t="n">
+        <v>33</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>The number of canadian vehicles returning to the country during 2017 registered the highest values during the summer months. In particular, the maximum number was recorded during August 2017. At the same time, the lowest value of the year was during the month of February. During the last few months of the year the number of vehicles returning to the country slowly decreased.</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>The TKN_UOM  of TKN_About  during  TKN_Year  registered the highest values during the summer months. In particular, the maximum TKN_UOM  was recorded during August  TKN_Year . At the same time, the lowest value of the year was during the month of February. During the last few months of the year the TKN_UOM  of vehicles returning to the country slowly decreased.</t>
+        </is>
+      </c>
+      <c r="W36" t="n">
+        <v>2329640</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1374721</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>303</v>
+      </c>
+      <c r="C37" t="n">
+        <v>52</v>
+      </c>
+      <c r="D37" t="n">
+        <v>5</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Production of Unprocessed milk</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Farm product price index (FPPI)</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>56.99999999999999</v>
+      </c>
+      <c r="J37" t="n">
+        <v>100</v>
+      </c>
+      <c r="K37" t="n">
+        <v>67</v>
+      </c>
+      <c r="L37" t="n">
+        <v>25</v>
+      </c>
+      <c r="M37" t="n">
+        <v>31</v>
+      </c>
+      <c r="N37" t="n">
+        <v>16</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>37</v>
+      </c>
+      <c r="R37" t="n">
+        <v>92</v>
+      </c>
+      <c r="S37" t="n">
+        <v>71</v>
+      </c>
+      <c r="T37" t="n">
+        <v>27</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>As it's possible to see from the graph, the production of unprocessed milk in Canada reported two significant peaks during 2017, one in February and one in October. Futhermore, from February to July the production value strongly decrease, reaching the yearly minimum value during July. It's clearly possible to see how the summer months are the period with the least production of unprocessed milk.</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>As it's possible to see from the graph, the TKN_About  in  TKN_Geo  reported two significant peaks during  TKN_Year , one in February and one in October. Futhermore, from February to July the production value strongly decrease, reaching the yearly minimum value during July. It's clearly possible to see how the summer months are the period with the least TKN_About .</t>
+        </is>
+      </c>
+      <c r="W37" t="n">
+        <v>1095</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1044</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/Captions collection/v3_test_captions_collection.xlsx
+++ b/Dataset/Captions collection/v3_test_captions_collection.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X37"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,16 +488,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -506,65 +506,65 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Production of Chickens, turkeys, chicks, poults</t>
+          <t>Import of creamery butter</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Farm product price index (FPPI)</t>
+          <t>Tonnes</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="K2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L2" t="n">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="N2" t="n">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="O2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="P2" t="n">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="Q2" t="n">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="R2" t="n">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="S2" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="T2" t="n">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Production of poultry including chickens, turkeys, chicks and poults reaches its maximum during the month of May with a number of 1215 in Canada. The biggest increase in production of poultry can be observed from February until May, while a drop from May to July takes place. From August until November the production remains quite stable at approximately 1205 and starts decreasing until it reaches its minimum in February below 1190.</t>
+          <t>the following graph is about the imports of creamery butter (in tonnes) in canada during 2016. it's possible to see how the values are generally increasing over the year, with a substan raise from august until october, where the values basically tripled. the maximum value recorded over the year is during november 2016, where the recorded production has been over 3000 tonnes.</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Production of poultry including chickens, turkeys, chicks and poults reaches its maximum during the month of May with a number of 100 in  TKN_Geo . The biggest increase in production of poultry can be observed from February until May, while a drop from May to July takes place. From August until November the production remains quite stable at approximately 62 and starts decreasing until it reaches its minimum in February below 4.</t>
+          <t>the following graph is about the imports TKN_About  (in tonnes) in canada during  TKN_Year . it's possible to see how the values are generally increasing over the year, with a substan raise from august until october, where the values basically tripled. the maximum value recorded over the year is during november  TKN_Year , where the recorded production has been over 97 tonnes.</t>
         </is>
       </c>
       <c r="W2" t="n">
-        <v>1215</v>
+        <v>3057</v>
       </c>
       <c r="X2" t="n">
-        <v>1189</v>
+        <v>896</v>
       </c>
     </row>
     <row r="3">
@@ -572,13 +572,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
         <v>2017</v>
@@ -590,7 +590,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Import of creamery butter</t>
+          <t>Production of Oats</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -599,56 +599,56 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="J3" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K3" t="n">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="L3" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="M3" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P3" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R3" t="n">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="S3" t="n">
-        <v>31</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="T3" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>The graph describes the import of creamery butter (in tonnes) in Canada during 2017. As can be seen from the graph, the value reports two significant peaks during the month of March and June. The minimum value has been recorded during the month of September. It's also possible to see how the values during January and December do not differ so much from each other.</t>
+          <t>this graph depicts the production of oats in tonnes in canada during 2017. production shows peaks in january and march, whereas it significantly drops after march, reaching its minimum of approximately 65000 in may. for the following months production slightly increases until august. between august and september a rapid increase in production can be observed, indicating the maximum of over 200000 in september. production slowly decreases throughout the following months until december.</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>The graph describes the TKN_About  (in tonnes) in  TKN_Geo  during  TKN_Year . As can be seen from the graph, the value reports two significant peaks during the month of March and June. The minimum value has been recorded during the month of September. It's also possible to see how the values during January and December do not differ so much from each other.</t>
+          <t>this graph depicts the TKN_About  in TKN_UOM  in canada during  TKN_Year . production shows peaks in january and march, whereas it significantly drops after march, reaching its minimum of approximately 0 in may. for the following months production slightly increases until august. between august and september a rapid increase in production can be observed, indicating the maximum of over 96 in september. production slowly decreases throughout the following months until december.</t>
         </is>
       </c>
       <c r="W3" t="n">
-        <v>2554</v>
+        <v>205171</v>
       </c>
       <c r="X3" t="n">
-        <v>668</v>
+        <v>64724</v>
       </c>
     </row>
     <row r="4">
@@ -656,16 +656,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Import of creamery butter</t>
+          <t>Supply of creamery butter</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -683,56 +683,56 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K4" t="n">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="L4" t="n">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="M4" t="n">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="N4" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="O4" t="n">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="P4" t="n">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="R4" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="S4" t="n">
-        <v>31</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="T4" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>This graph illustrates the Canadian import of creamery butter in 2017. The unit used is tonnes. Import reaches its maximum of over 2500 tonnes during June and its second highes import during the month of March with approximately 2150. After June the import drastically decreases until reaching a minimum of approximately 730 in September. From the months of September until February the import oscillates between approximately 730 and 1300.</t>
+          <t>in the following graph is described the monthly supply of creamery butter in tonnes about canada during 2016. the minimum value has been registered during the month of january and maximum during july. furthermore, it's possible to see how the supply of creamery butter is generally higher during spring and summer.</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>This graph illustrates the Canadian TKN_About  in  TKN_Year . The unit used is TKN_UOM . Import reaches its maximum of over 97 TKN_UOM  during June and its second highes import during the month of March with approximately 79. After June the import drastically decreases until reaching a minimum of approximately 3 in September. From the months of September until February the import oscillates between approximately 3 and 34.</t>
+          <t>in the following graph is described the monthly TKN_About  in TKN_UOM  about canada during  TKN_Year . the minimum value has been registered during the month of january and maximum during july. furthermore, it's possible to see how the TKN_About  is generally higher during spring and summer.</t>
         </is>
       </c>
       <c r="W4" t="n">
-        <v>2554</v>
+        <v>28901</v>
       </c>
       <c r="X4" t="n">
-        <v>668</v>
+        <v>20923</v>
       </c>
     </row>
     <row r="5">
@@ -740,16 +740,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -758,65 +758,65 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Total Canadian vehicles returning to the country</t>
+          <t>Total softwood, production</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Number</t>
+          <t>Cubic metres</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="K5" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="L5" t="n">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="M5" t="n">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="N5" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="O5" t="n">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="P5" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="Q5" t="n">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="R5" t="n">
-        <v>55.00000000000001</v>
+        <v>90</v>
       </c>
       <c r="S5" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="T5" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>This graph indicates the number of total Canadian vehicles returning to the country in 2017. The lowest number of approximately 1400000 can be observed during the month of February. Over the following 4 months a steady increase takes place. As can be seen from the graph there is sharp rise of returning vehicles from June until August. After August the number steadily decreases until reaching its minimum in February.</t>
+          <t>this graph depicts the total softwood production in canada in 2016 in cubic meters. the values range from roughly 57000 in march to 46000 in december. january to march there is an increase in production, march to july production decreased and reached 50000 in july. there is another high of about 57000 cubic meters in november.</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>This graph indicates the TKN_UOM  of TKN_About  in  TKN_Year . The lowest TKN_UOM  of approximately 3 can be observed during the month of February. Over the following 4 months a steady increase takes place. As can be seen from the graph there is sharp rise of returning vehicles from June until August. After August the TKN_UOM  steadily decreases until reaching its minimum in February.</t>
+          <t>this graph depicts the TKN_About  in canada in  TKN_Year  TKN_UOM  meters. the values range from roughly 102 in march to -1 in december. january to march there is an increase in production, march to july production decreased and reached 36 in july. there is another high of about 102 cubic meters in november.</t>
         </is>
       </c>
       <c r="W5" t="n">
-        <v>2329640</v>
+        <v>56805</v>
       </c>
       <c r="X5" t="n">
-        <v>1374721</v>
+        <v>46158</v>
       </c>
     </row>
     <row r="6">
@@ -824,16 +824,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Production of Chickens, turkeys, chicks, poults</t>
+          <t>Production of Unprocessed milk</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -851,56 +851,56 @@
         </is>
       </c>
       <c r="I6" t="n">
+        <v>35</v>
+      </c>
+      <c r="J6" t="n">
         <v>19</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L6" t="n">
-        <v>69</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="N6" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="P6" t="n">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="Q6" t="n">
-        <v>62</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="R6" t="n">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="S6" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="T6" t="n">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>The graph shows the production of chickens, turkeys, chicks, and poults in Canada in the year of 2017. There is one data entry for each month of the year. Production is measured by the farm product price index. The x-axis shows the months, the y-axis the index ranging from 1190 to 1215. There is a high in May (index of 1215) and a low in February (a bit below 1190).</t>
+          <t>as can be seen from the graph the production of unprocessed milk in canada during 2018 had a significant growth during the second half of the year. it decreased from january to june, when it has been recorded the minimum value of the year. but then it started to rapidly increase reaching its maximum value during november 2019.</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>The graph shows the TKN_About  in  TKN_Geo  in the year of  TKN_Year . There is one data entry for each month of the year. Production is measured TKN_UOM  index. The x-axis shows the months, the y-axis the index ranging from 4 to 100. There is a high in May (index of 100) and a low in February (a bit below 4).</t>
+          <t>as can be seen from the graph the TKN_About  in canada during  TKN_Year  had a significant growth during the second half of the year. it decreased from january to june, when it has been recorded the minimum value of the year. but then it started to rapidly increase reaching its maximum value during november 2019.</t>
         </is>
       </c>
       <c r="W6" t="n">
-        <v>1215</v>
+        <v>1140</v>
       </c>
       <c r="X6" t="n">
-        <v>1189</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="7">
@@ -908,13 +908,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C7" t="n">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
         <v>2018</v>
@@ -926,65 +926,65 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Production of Oats</t>
+          <t>Production of Unprocessed milk</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Tonnes</t>
+          <t>Farm product price index (FPPI)</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>56.99999999999999</v>
+        <v>35</v>
       </c>
       <c r="J7" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="K7" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="L7" t="n">
-        <v>40</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="M7" t="n">
-        <v>46</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="N7" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P7" t="n">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="Q7" t="n">
-        <v>91</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="S7" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="T7" t="n">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>The graph illustrates the production of oats in Canada for the year 2018. There are sharp decreases in production for the months of February, July and November.</t>
+          <t>as is shown form the graph, the production of unprocessed milk steadily increases in winter time, and steadily decreases in summer. the graph shows that production is highest in november and lowest in june.</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>The graph illustrates the TKN_About  in  TKN_Geo  for the year  TKN_Year . There are sharp decreases in production for the months of February, July and November.</t>
+          <t>as is shown form the graph, the TKN_About  steadily increases in winter time, and steadily decreases in summer. the graph shows that production is highest in november and lowest in june.</t>
         </is>
       </c>
       <c r="W7" t="n">
-        <v>213885</v>
+        <v>1140</v>
       </c>
       <c r="X7" t="n">
-        <v>80033</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="8">
@@ -992,13 +992,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
         <v>2018</v>
@@ -1010,65 +1010,65 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Total softwood, production</t>
+          <t>House and land price index</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cubic metres</t>
+          <t>Index 347</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="J8" t="n">
-        <v>56.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="O8" t="n">
-        <v>56.99999999999999</v>
+        <v>100</v>
       </c>
       <c r="P8" t="n">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="Q8" t="n">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="R8" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="S8" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>The graph indicates the number of cubic meters of soft wood production in Canada for 2018. Production is highest in spring time and drops to its lowest in December.</t>
+          <t>the following chart provides information about the house and land price index in canada during 2018. it's clearly possible to see how the index value significantly dropped down between january and february. over the next few months the index value remained stable. it raised up again during the summer, reaching the same value of january during the month of june. from june to december the index value maintained the same level.</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>The graph indicates the number TKN_UOM  meters of soft TKN_About  in  TKN_Geo  for  TKN_Year . Production is highest in spring time and drops to its lowest in December.</t>
+          <t>the following chart provides information about TKN_About  TKN_UOM  in canada during  TKN_Year . it's clearly possible to see how the index value significantly dropped down between january and february. over the next few months the index value remained stable. it raised up again during the summer, reaching the same value of january during the month of june. from june to december the index value maintained the same level.</t>
         </is>
       </c>
       <c r="W8" t="n">
-        <v>5839.2</v>
+        <v>1033</v>
       </c>
       <c r="X8" t="n">
-        <v>4238.6</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="9">
@@ -1076,83 +1076,83 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>54</v>
+      </c>
+      <c r="C9" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Production of creamery butter</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Tonnes</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>100</v>
+      </c>
+      <c r="J9" t="n">
+        <v>64</v>
+      </c>
+      <c r="K9" t="n">
+        <v>76</v>
+      </c>
+      <c r="L9" t="n">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>51</v>
+      </c>
+      <c r="N9" t="n">
         <v>36</v>
       </c>
-      <c r="C9" t="n">
-        <v>52</v>
-      </c>
-      <c r="D9" t="n">
-        <v>5</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2017</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Production of Unprocessed milk</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Farm product price index (FPPI)</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>56.99999999999999</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-      <c r="K9" t="n">
-        <v>67</v>
-      </c>
-      <c r="L9" t="n">
-        <v>25</v>
-      </c>
-      <c r="M9" t="n">
-        <v>31</v>
-      </c>
-      <c r="N9" t="n">
-        <v>16</v>
-      </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P9" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="S9" t="n">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="T9" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>The line chart illustrates the production of unprocessed milk in Canada during 2017. The values are described using the farm product price index (FPPI). It's clearly possible to see two main peaks over the year, one during February and one during October. At the same time, during the summer the production significantly decreased, reaching its minimum value during the month of July.</t>
+          <t>the production of creamy butter reached its highest point in january of 2018. thereafter, production declined in february and then recovered in may. in the months following production steadily decreased until september. thereafter, the graph fluctuated from october to december.</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>The line chart illustrates the TKN_About  in  TKN_Geo  during  TKN_Year . The values are described using TKN_UOM  (FPPI). It's clearly possible to see two main peaks over the year, one during February and one during October. At the same time, during the summer the production significantly decreased, reaching its minimum value during the month of July.</t>
+          <t>the TKN_About  reached its highest point in january of  TKN_Year . thereafter, production declined in february and then recovered in may. in the months following production steadily decreased until september. thereafter, the graph fluctuated from october to december.</t>
         </is>
       </c>
       <c r="W9" t="n">
-        <v>1095</v>
+        <v>12767</v>
       </c>
       <c r="X9" t="n">
-        <v>1044</v>
+        <v>7249</v>
       </c>
     </row>
     <row r="10">
@@ -1160,16 +1160,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C10" t="n">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1178,65 +1178,65 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Total United States vehicles entering</t>
+          <t>Production of Fresh potatoes</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Number</t>
+          <t>Farm product price index (FPPI)</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K10" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M10" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="N10" t="n">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="O10" t="n">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>100</v>
       </c>
       <c r="Q10" t="n">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="R10" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T10" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>The graph shows the the number of United States vehicles entering Canada in 2018. As illustrated form the graph, the spring months show the amount of cars steadily increasing and reaching their highest point in summer. For the following months, in fall, the amount of cars entering decline and reach their lowest point in winter.</t>
+          <t>the graph illustrated the production of fresh potatoes in canada in 2017. the measurement used is the farm product price index (fppi): there is a clear peak in august, reaching an index of more than 1800.</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>The graph shows the the TKN_UOM  of TKN_About   TKN_Geo  in  TKN_Year . As illustrated form the graph, the spring months show the amount of cars steadily increasing and reaching their highest point in summer. For the following months, in fall, the amount of cars entering decline and reach their lowest point in winter.</t>
+          <t>the graph illustrated the TKN_About  in canada in  TKN_Year . the measurement used is TKN_UOM  (fppi): there is a clear peak in august, reaching an index of more than 96.</t>
         </is>
       </c>
       <c r="W10" t="n">
-        <v>1193966</v>
+        <v>1817</v>
       </c>
       <c r="X10" t="n">
-        <v>572090</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="11">
@@ -1244,10 +1244,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="C11" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D11" t="n">
         <v>9</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Production of Malt</t>
+          <t>Production of Canola</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1271,56 +1271,56 @@
         </is>
       </c>
       <c r="I11" t="n">
+        <v>69</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>36</v>
+      </c>
+      <c r="L11" t="n">
+        <v>45</v>
+      </c>
+      <c r="M11" t="n">
+        <v>34</v>
+      </c>
+      <c r="N11" t="n">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="O11" t="n">
+        <v>13</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>6</v>
+      </c>
+      <c r="R11" t="n">
+        <v>100</v>
+      </c>
+      <c r="S11" t="n">
         <v>35</v>
       </c>
-      <c r="J11" t="n">
-        <v>33</v>
-      </c>
-      <c r="K11" t="n">
-        <v>100</v>
-      </c>
-      <c r="L11" t="n">
-        <v>39</v>
-      </c>
-      <c r="M11" t="n">
-        <v>66</v>
-      </c>
-      <c r="N11" t="n">
-        <v>80</v>
-      </c>
-      <c r="O11" t="n">
-        <v>86</v>
-      </c>
-      <c r="P11" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>15</v>
-      </c>
-      <c r="S11" t="n">
-        <v>22</v>
-      </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>The following line chart is about the production of malt in Canada 2018. The values are reported using tonnes as unit of measure. It clearly possible to see several peaks and dips of production over the year. In particular, the maximum values have been recorded during March and July. It's also illustrated a significant fall of the production from July to August.</t>
+          <t>a figure indicating canola production in canada each month in 2018.  there do not seem to be any seasonal trends in the production.  the maximum production occurred in october, at over 1400000 tonnes; and production fell below 600000 tonnes in february, august and september.</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>The following line chart is about the TKN_About  in  TKN_Geo   TKN_Year . The values are reported using TKN_UOM  as unit of measure. It clearly possible to see several peaks and dips of production over the year. In particular, the maximum values have been recorded during March and July. It's also illustrated a significant fall of the production from July to August.</t>
+          <t>a figure indicating TKN_About  in canada each month in  TKN_Year .  there do not seem to be any seasonal trends in the production.  the maximum production occurred in october, at over 97 TKN_UOM ; and production fell below 10 TKN_UOM  in february, august and september.</t>
         </is>
       </c>
       <c r="W11" t="n">
-        <v>54960</v>
+        <v>1432136</v>
       </c>
       <c r="X11" t="n">
-        <v>42553</v>
+        <v>506704</v>
       </c>
     </row>
     <row r="12">
@@ -1328,16 +1328,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C12" t="n">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1346,65 +1346,65 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Price index: Servers</t>
+          <t>Total hardwood, production</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>ID 708</t>
+          <t>Cubic metres</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K12" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M12" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="N12" t="n">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="O12" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>69</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="R12" t="n">
-        <v>56.00000000000001</v>
+        <v>42</v>
       </c>
       <c r="S12" t="n">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="T12" t="n">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>The graph depicts a price index of servers in Canada. Data was taken from 2018. One can observe a decline in the price index within the first months of the year, reaching a low of 997 in April. Throughout the following three months, the index increased to 1013 in July. Values decreased steadily until October (1006) and stayed the same for November and December (1008).</t>
+          <t>the following line chart provides information about the total production of hardwood in canada during 2017. the production values have been described using cubic metres as unit of measure. the values have been strongly fluactuating over the year. it shows several peaks and dips over the year. even that, the maximum value has been recorded during march and the minimum during july.</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>The graph depicts a TKN_About  in  TKN_Geo . Data was taken from  TKN_Year . One can observe a decline in the price index within the first months of the year, reaching a low of 0 in April. Throughout the following three months, the index increased to 100 in July. Values decreased steadily until October (56) and stayed the same for November and December (69).</t>
+          <t>the following line chart provides information about the TKN_About  of hardwood in canada during  TKN_Year . the production values have been described using TKN_UOM  as unit of measure. the values have been strongly fluactuating over the year. it shows several peaks and dips over the year. even that, the maximum value has been recorded during march and the minimum during july.</t>
         </is>
       </c>
       <c r="W12" t="n">
-        <v>1013</v>
+        <v>1506</v>
       </c>
       <c r="X12" t="n">
-        <v>997</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="13">
@@ -1412,83 +1412,83 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C13" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Total hardwood, production</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Cubic metres</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>34</v>
+      </c>
+      <c r="K13" t="n">
+        <v>100</v>
+      </c>
+      <c r="L13" t="n">
+        <v>20</v>
+      </c>
+      <c r="M13" t="n">
+        <v>78</v>
+      </c>
+      <c r="N13" t="n">
+        <v>53</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
         <v>5</v>
       </c>
-      <c r="E13" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Total farm production index</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Farm product price index (FPPI)</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>33</v>
-      </c>
-      <c r="J13" t="n">
-        <v>38</v>
-      </c>
-      <c r="K13" t="n">
-        <v>48</v>
-      </c>
-      <c r="L13" t="n">
-        <v>32</v>
-      </c>
-      <c r="M13" t="n">
-        <v>57.99999999999999</v>
-      </c>
-      <c r="N13" t="n">
-        <v>87</v>
-      </c>
-      <c r="O13" t="n">
-        <v>100</v>
-      </c>
-      <c r="P13" t="n">
-        <v>40</v>
-      </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="R13" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="S13" t="n">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>The following line chart is decribing the trend of the total farm production index in Canada during 2018. The values are described using the farm product price index (FPPI). It can be seen from the graph that the values are frequently fluctuating over the year, showing several peaks and dips. The most significant peak was recorded during the month of July 2018. The lowest values have been recorded during the months of September and December.</t>
+          <t>hardwood production in canada for each month of 2017.  while production varied between less than 1100 cubic metres and over 1500 cubic metres in a given month, there do not seem to be any trends in the value over time.</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>The following line chart is decribing the trend of the TKN_About  in  TKN_Geo  during  TKN_Year . The values are described using TKN_UOM  (FPPI). It can be seen from the graph that the values are frequently fluctuating over the year, showing several peaks and dips. The most significant peak was recorded during the month of July  TKN_Year . The lowest values have been recorded during the months of September and December.</t>
+          <t>hardwood production in canada for each month of  TKN_Year .  while production varied between less than 11 TKN_UOM  and over 99 TKN_UOM  in a given month, there do not seem to be any trends in the value over time.</t>
         </is>
       </c>
       <c r="W13" t="n">
-        <v>1337</v>
+        <v>1506</v>
       </c>
       <c r="X13" t="n">
-        <v>1277</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="14">
@@ -1496,16 +1496,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="C14" t="n">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1514,65 +1514,65 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Production of Wheat flour</t>
+          <t>Total softwood, production</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Tonnes</t>
+          <t>Cubic metres</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="J14" t="n">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="K14" t="n">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="L14" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M14" t="n">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="N14" t="n">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="O14" t="n">
-        <v>56.99999999999999</v>
+        <v>36</v>
       </c>
       <c r="P14" t="n">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="Q14" t="n">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="R14" t="n">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="S14" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>The graph shows the values about the production of Wheat flour in Canada over 2018. The values are described using tonnes as unit of measure. There is a drop from January to February. It's possible to see how the production value rapidly increased from February to April. Then from April to December the production value slightly decreased, showing few light fluctuations.</t>
+          <t>this graph depicts the total softwood production in cubic metres of canada in 2016. production starts at approximately 53000 cubic metres in january and increases to one of its maximum values of 57000 cubic metres in march. the following months show first a slow decrease, but then a sharp decrease in july. from july until november production gradually increases again until it reaches its second maximum of 57000 cubic metres in november. there is a sharp drop from november onwards, reaching its minimum value of 46000 cubic metres in december.</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>The graph shows the values about the TKN_About  in  TKN_Geo  over  TKN_Year . The values are described using TKN_UOM  as unit of measure. There is a drop from January to February. It's possible to see how the production value rapidly increased from February to April. Then from April to December the production value slightly decreased, showing few light fluctuations.</t>
+          <t>this graph depicts the TKN_About  in TKN_UOM  of canada in  TKN_Year . production starts at approximately 64 TKN_UOM  in january and increases to one of its maximum values of 102 TKN_UOM  in march. the following months show first a slow decrease, but then a sharp decrease in july. from july until november production gradually increases again until it reaches its second maximum of 102 TKN_UOM  in november. there is a sharp drop from november onwards, reaching its minimum value of -1 TKN_UOM  in december.</t>
         </is>
       </c>
       <c r="W14" t="n">
-        <v>42184</v>
+        <v>56805</v>
       </c>
       <c r="X14" t="n">
-        <v>17805</v>
+        <v>46158</v>
       </c>
     </row>
     <row r="15">
@@ -1580,83 +1580,83 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>123</v>
+      </c>
+      <c r="C15" t="n">
+        <v>9</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2016</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Total softwood, production</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Cubic metres</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>64</v>
+      </c>
+      <c r="J15" t="n">
+        <v>72</v>
+      </c>
+      <c r="K15" t="n">
+        <v>100</v>
+      </c>
+      <c r="L15" t="n">
+        <v>95</v>
+      </c>
+      <c r="M15" t="n">
+        <v>91</v>
+      </c>
+      <c r="N15" t="n">
         <v>83</v>
       </c>
-      <c r="C15" t="n">
-        <v>35</v>
-      </c>
-      <c r="D15" t="n">
-        <v>5</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Total farm production index</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Farm product price index (FPPI)</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>33</v>
-      </c>
-      <c r="J15" t="n">
-        <v>38</v>
-      </c>
-      <c r="K15" t="n">
-        <v>48</v>
-      </c>
-      <c r="L15" t="n">
-        <v>32</v>
-      </c>
-      <c r="M15" t="n">
-        <v>57.99999999999999</v>
-      </c>
-      <c r="N15" t="n">
-        <v>87</v>
-      </c>
       <c r="O15" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="P15" t="n">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q15" t="n">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="R15" t="n">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="S15" t="n">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>This chart shows how the Canadian total farm production index varies by month throughout 2018. We see a distinctive season pattern. Production starts at a middling level in the first three months of the year, before a rapid increase from April to July, where it reaches a peak. A quick descent then follow into the fall, with a low point in September, a small rebound in October, and falling again in December.</t>
+          <t>this line graph displays total softwood production in cubic metres in canada for 2016. the amount fluctuates with an increase from january to march, followed by a slow decrease from march to june.  a steep reduction follows in july, matched by an equally steep increase in august.  a steady increase from august to november is followed by a dramatic reduction in december to a yearly low of 46000 cubic metres.</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>This chart shows how the TKN_UOM  varies by month throughout  TKN_Year . We see a distinctive TKN_About  starts at a middling level in the first three months of the year, before a rapid increase from April to July, where it reaches a peak. A quick descent then follow into the fall, with a low point in September, a small rebound in October, and falling again in December.</t>
+          <t>this line graph displays TKN_About  in TKN_UOM  in canada for  TKN_Year . the amount fluctuates with an increase from january to march, followed by a slow decrease from march to june.  a steep reduction follows in july, matched by an equally steep increase in august.  a steady increase from august to november is followed by a dramatic reduction in december to a yearly low of -1 TKN_UOM .</t>
         </is>
       </c>
       <c r="W15" t="n">
-        <v>1337</v>
+        <v>56805</v>
       </c>
       <c r="X15" t="n">
-        <v>1277</v>
+        <v>46158</v>
       </c>
     </row>
     <row r="16">
@@ -1664,83 +1664,83 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="C16" t="n">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="D16" t="n">
+        <v>9</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Production of Canola</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Tonnes</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>69</v>
+      </c>
+      <c r="J16" t="n">
         <v>6</v>
       </c>
-      <c r="E16" t="n">
-        <v>2016</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Commercial software prince index</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ID 185</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>100</v>
-      </c>
-      <c r="J16" t="n">
-        <v>79</v>
-      </c>
       <c r="K16" t="n">
+        <v>36</v>
+      </c>
+      <c r="L16" t="n">
+        <v>45</v>
+      </c>
+      <c r="M16" t="n">
+        <v>34</v>
+      </c>
+      <c r="N16" t="n">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="O16" t="n">
+        <v>13</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>6</v>
+      </c>
+      <c r="R16" t="n">
+        <v>100</v>
+      </c>
+      <c r="S16" t="n">
         <v>35</v>
       </c>
-      <c r="L16" t="n">
-        <v>16</v>
-      </c>
-      <c r="M16" t="n">
-        <v>23</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>16</v>
-      </c>
-      <c r="P16" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>9</v>
-      </c>
-      <c r="R16" t="n">
-        <v>23</v>
-      </c>
-      <c r="S16" t="n">
-        <v>33</v>
-      </c>
       <c r="T16" t="n">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>A line chart about the price index concerning the commercial software in Canada, 2016. The index dropped from 1218 to stabilizes around 1185 by the month of April.</t>
+          <t>canola oil production fluctuate significantly over short periods of time.</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>A line chart about the price TKN_About  in  TKN_Geo ,  TKN_Year . The index dropped from 100 to stabilizes around 23 by the month of April.</t>
+          <t>canola oil production fluctuate significantly over short periods of time.</t>
         </is>
       </c>
       <c r="W16" t="n">
-        <v>1218</v>
+        <v>1432136</v>
       </c>
       <c r="X16" t="n">
-        <v>1175</v>
+        <v>506704</v>
       </c>
     </row>
     <row r="17">
@@ -1748,16 +1748,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C17" t="n">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E17" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1766,65 +1766,65 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Price index: Servers</t>
+          <t>Production of Oats</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>ID 708</t>
+          <t>Tonnes</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="J17" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K17" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="O17" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="P17" t="n">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="Q17" t="n">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="R17" t="n">
-        <v>56.00000000000001</v>
+        <v>89</v>
       </c>
       <c r="S17" t="n">
-        <v>69</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="T17" t="n">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>Servers price index in 2018 from April to July has sharply increased.</t>
+          <t>oats produzed in canada in the year 2017.</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Servers price index in  TKN_Year  from April to July has sharply increased.</t>
+          <t>oats produzed in canada in the year  TKN_Year .</t>
         </is>
       </c>
       <c r="W17" t="n">
-        <v>1013</v>
+        <v>205171</v>
       </c>
       <c r="X17" t="n">
-        <v>997</v>
+        <v>64724</v>
       </c>
     </row>
     <row r="18">
@@ -1832,83 +1832,83 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C18" t="n">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Production of Fresh potatoes</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Farm product price index (FPPI)</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>7.000000000000001</v>
+      </c>
+      <c r="J18" t="n">
         <v>9</v>
       </c>
-      <c r="E18" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Production of Malt</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>35</v>
-      </c>
-      <c r="J18" t="n">
-        <v>33</v>
-      </c>
       <c r="K18" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="L18" t="n">
+        <v>14</v>
+      </c>
+      <c r="M18" t="n">
+        <v>17</v>
+      </c>
+      <c r="N18" t="n">
+        <v>23</v>
+      </c>
+      <c r="O18" t="n">
+        <v>54</v>
+      </c>
+      <c r="P18" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q18" t="n">
         <v>39</v>
       </c>
-      <c r="M18" t="n">
-        <v>66</v>
-      </c>
-      <c r="N18" t="n">
-        <v>80</v>
-      </c>
-      <c r="O18" t="n">
-        <v>86</v>
-      </c>
-      <c r="P18" t="n">
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" t="n">
         <v>12</v>
       </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>15</v>
-      </c>
-      <c r="S18" t="n">
-        <v>22</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>Malt production incredibly decrease from July 2018 to August 2018.</t>
+          <t>it's clearly possible to see how the production of fresh potatoes in canada during 2017 maintained the same level for almost the whole year, but the summer months. during the summer months have been registered the highest values, in particular during august which was the highest peak of production. after that, the values dropped down form august to october.</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Malt production incredibly decrease from July  TKN_Year  to August  TKN_Year .</t>
+          <t>it's clearly possible to see how the TKN_About  in canada during  TKN_Year  maintained the same level for almost the whole year, but the summer months. during the summer months have been registered the highest values, in particular during august which was the highest peak of production. after that, the values dropped down form august to october.</t>
         </is>
       </c>
       <c r="W18" t="n">
-        <v>54960</v>
+        <v>1817</v>
       </c>
       <c r="X18" t="n">
-        <v>42553</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="19">
@@ -1916,16 +1916,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C19" t="n">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1934,65 +1934,65 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Commercial software prince index</t>
+          <t>Production of creamery butter</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>ID 185</t>
+          <t>Tonnes</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>100</v>
       </c>
       <c r="J19" t="n">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="K19" t="n">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="L19" t="n">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="M19" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="O19" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P19" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="S19" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="T19" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>A line chart about the Commercial software prince index in Canada in the year 2016. Values   are analyzed in the different months of the year. With index values   ranging from less than 1180 to more than 1220. The maximum value is reached in at the beginning of the year (Jan) and then decreasing.</t>
+          <t>a line chart about the production of creamery butter per tonnes in canada in the year 2018. the minimum value is reached in september and the maximum in january.</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>A line chart about the TKN_About  in  TKN_Geo  in the year  TKN_Year . Values   are analyzed in the different months of the year. With index values   ranging from less than 12 to more than 105. The maximum value is reached in at the beginning of the year (Jan) and then decreasing.</t>
+          <t>a line chart about the TKN_About  per TKN_UOM  in canada in the year  TKN_Year . the minimum value is reached in september and the maximum in january.</t>
         </is>
       </c>
       <c r="W19" t="n">
-        <v>1218</v>
+        <v>12767</v>
       </c>
       <c r="X19" t="n">
-        <v>1175</v>
+        <v>7249</v>
       </c>
     </row>
     <row r="20">
@@ -2000,16 +2000,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C20" t="n">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -2018,65 +2018,65 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Total Canadian vehicles returning to the country</t>
+          <t>Import of creamery butter</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Number</t>
+          <t>Tonnes</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="K20" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="L20" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M20" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="N20" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="O20" t="n">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="P20" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="Q20" t="n">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="R20" t="n">
-        <v>55.00000000000001</v>
+        <v>92</v>
       </c>
       <c r="S20" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="T20" t="n">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>The graph shows the trend of the total number of Canadian vehicles returning to Canada during the year 2017. The number drops between january and february and shows the minimum value in february. From february on it increases and shows the maximum value in august. Between august and december the number decreases continuously.</t>
+          <t>the graph shows the import of creamery butter (month vs. tonnes) in canada in 2016. first the rapid growth is observed in january, followed by a sharp decline in february. the import then raises slightly in march, remaining constant from april to june. falling slightly during june-august, it jumps high in august-november, with a small slip in december.</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>The graph shows the trend of the total TKN_UOM  of Canadian vehicles returning to  TKN_Geo  during the year  TKN_Year . The TKN_UOM  drops between january and february and shows the minimum value in february. From february on it increases and shows the maximum value in august. Between august and december the TKN_UOM  decreases continuously.</t>
+          <t>the graph shows the TKN_About  (month vs. tonnes) in canada in  TKN_Year . first the rapid growth is observed in january, followed by a sharp decline in february. the import then raises slightly in march, remaining constant from april to june. falling slightly during june-august, it jumps high in august-november, with a small slip in december.</t>
         </is>
       </c>
       <c r="W20" t="n">
-        <v>2329640</v>
+        <v>3057</v>
       </c>
       <c r="X20" t="n">
-        <v>1374721</v>
+        <v>896</v>
       </c>
     </row>
     <row r="21">
@@ -2084,16 +2084,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="C21" t="n">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -2102,65 +2102,65 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Production of Unprocessed milk</t>
+          <t>House and land price index</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Farm product price index (FPPI)</t>
+          <t>Index 347</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>56.99999999999999</v>
+        <v>100</v>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P21" t="n">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="Q21" t="n">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="R21" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="S21" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="T21" t="n">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>Graph that describes the production of unprocessed milk in Canada in 2017. The production in October and February is the highest, while there is a significant drop the following two months of each. The production slightly rises in May but it then plunges until July, where the lowest value can be seen. After that month, there is a steady increase until October.</t>
+          <t>the given graph shows the house and land price index development in canada in the year 2018, devided by month. the index started out at 1033 january and then decreased to 1031 in february and staying constant until may, giving way to a rise back to 1033 between may and july, again staying at 1033 dollars till the end of the year.</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Graph that describes the TKN_About  in  TKN_Geo  in  TKN_Year . The production in October and February is the highest, while there is a significant drop the following two months of each. The production slightly rises in May but it then plunges until July, where the lowest value can be seen. After that month, there is a steady increase until October.</t>
+          <t>the given graph shows TKN_About  TKN_UOM  development in canada in the year  TKN_Year , devided by month. the index started out at 100 january and then decreased to 0 in february and staying constant until may, giving way to a rise back to 100 between may and july, again staying at 100 dollars till the end of the year.</t>
         </is>
       </c>
       <c r="W21" t="n">
-        <v>1095</v>
+        <v>1033</v>
       </c>
       <c r="X21" t="n">
-        <v>1044</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="22">
@@ -2168,13 +2168,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
         <v>2018</v>
@@ -2186,65 +2186,65 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Total softwood, production</t>
+          <t>House and land price index</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cubic metres</t>
+          <t>Index 347</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="J22" t="n">
-        <v>56.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="O22" t="n">
-        <v>56.99999999999999</v>
+        <v>100</v>
       </c>
       <c r="P22" t="n">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="Q22" t="n">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="R22" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="S22" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>Total softwood production in cubic meters in Canada in 2018 is shown in the graph. Production in January starts at roughly 5650 m3, and it shrinks the next month. In March, this value goes back up and remains steady until May. It plunges until July to the same value as in February and then it oscilates between this value and the one in January until November to drop again to 4200 m3 in December.</t>
+          <t>the graph shows the house and land price index in canada in the year of 2018. it is striking that the value only changes twice a year. it falls from january to february, and from may to july it rises back to the original amount of 1033. for the rest of the year, the value remains constant.</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Total softwood production TKN_UOM  meters in  TKN_Geo  in  TKN_Year  is shown in the graph. Production in January starts at roughly 88 m3, and it shrinks the next month. In March, this value goes back up and remains steady until May. It plunges until July to the same value as in February and then it oscilates between this value and the one in January until November to drop again to -2 m3 in December.</t>
+          <t>the graph shows TKN_About  TKN_UOM  in canada in the year of  TKN_Year . it is striking that the value only changes twice a year. it falls from january to february, and from may to july it rises back to the original amount of 100. for the rest of the year, the value remains constant.</t>
         </is>
       </c>
       <c r="W22" t="n">
-        <v>5839.2</v>
+        <v>1033</v>
       </c>
       <c r="X22" t="n">
-        <v>4238.6</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="23">
@@ -2252,83 +2252,83 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="C23" t="n">
+        <v>20</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2016</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Supply of creamery butter</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Tonnes</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>40</v>
+      </c>
+      <c r="K23" t="n">
+        <v>36</v>
+      </c>
+      <c r="L23" t="n">
+        <v>64</v>
+      </c>
+      <c r="M23" t="n">
         <v>86</v>
       </c>
-      <c r="D23" t="n">
-        <v>9</v>
-      </c>
-      <c r="E23" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Production of Oats</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>56.99999999999999</v>
-      </c>
-      <c r="J23" t="n">
-        <v>10</v>
-      </c>
-      <c r="K23" t="n">
-        <v>40</v>
-      </c>
-      <c r="L23" t="n">
-        <v>40</v>
-      </c>
-      <c r="M23" t="n">
-        <v>46</v>
-      </c>
       <c r="N23" t="n">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P23" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q23" t="n">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="R23" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="S23" t="n">
-        <v>40</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="T23" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>This graph shows the monthly amount of oats produced in Canada in 2018 in tonnes. Oat production stayed within the range of 80000 and 210000 tonnes each month. While most months averaged production at around 140000 tonnes, February, June and July saw dips in production to around 90000 tonnes and the fall months saw a higher harvest, 16000 and above 200000 tonnes consecutively.</t>
+          <t>it shows the data about supply of creamery butter in canada during 2016. the displayed values are in tones. it's possible to see how the value rapidly increase from january over, reaching its peaks during the month of july with approximately 29000 tonnes. after that, the values decrease until september and then rise up again during last 3 months of the year.</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>This graph shows the monthly amount TKN_About  produced in  TKN_Geo  in  TKN_Year  in TKN_UOM . Oat production stayed within the range of 0 and 97 TKN_UOM  each month. While most months averaged production at around 45 TKN_UOM , February, June and July saw dips in production to around 7 TKN_UOM  and the fall months saw a higher harvest, -48 and above 90 TKN_UOM  consecutively.</t>
+          <t>it shows the data about TKN_About  in canada during  TKN_Year . the displayed values are in tones. it's possible to see how the value rapidly increase from january over, reaching its peaks during the month of july with approximately 101 tonnes. after that, the values decrease until september and then rise up again during last 3 months of the year.</t>
         </is>
       </c>
       <c r="W23" t="n">
-        <v>213885</v>
+        <v>28901</v>
       </c>
       <c r="X23" t="n">
-        <v>80033</v>
+        <v>20923</v>
       </c>
     </row>
     <row r="24">
@@ -2336,16 +2336,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="C24" t="n">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -2354,65 +2354,65 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Production of Wheat flour</t>
+          <t>Total hardwood, production</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Tonnes</t>
+          <t>Cubic metres</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="K24" t="n">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="L24" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="M24" t="n">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="N24" t="n">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
         <v>56.99999999999999</v>
       </c>
-      <c r="P24" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>11</v>
-      </c>
       <c r="R24" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="S24" t="n">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>The accompanying graph shows the yearly developement of wheat flower production in tonnes in 2018. The starting point in January is around 30000 tons, with an increase to peak production  in April with over 43000 tons and a following decline to just under 35000 tons. After a slight increase the production plummited to just over 20000 tons in September and fell to its lowest point of around 17000 tons in December.</t>
+          <t>the graph is showing the production's trend of total hardwood in canada during 2017. the values are in cubic metres. it's clearly possible to see how the values are strongly fluctuating over the year. there are several peaks, in particular during march, may and novembe. at the same time, the minimum values have been recorded during the months of january, july and august.</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>The accompanying graph shows the yearly developement TKN_About  in TKN_UOM  in  TKN_Year . The starting point in January is around 50 tons, with an increase to peak production  in April with over 103 tons and a following decline to just under 71 tons. After a slight increase the production plummited to just over 9 tons in September and fell to its lowest point of around -3 tons in December.</t>
+          <t>the graph is showing the production's trend TKN_About  hardwood in canada during  TKN_Year . the values are TKN_UOM  metres. it's clearly possible to see how the values are strongly fluctuating over the year. there are several peaks, in particular during march, may and novembe. at the same time, the minimum values have been recorded during the months of january, july and august.</t>
         </is>
       </c>
       <c r="W24" t="n">
-        <v>42184</v>
+        <v>1506</v>
       </c>
       <c r="X24" t="n">
-        <v>17805</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="25">
@@ -2420,83 +2420,83 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>178</v>
+        <v>241</v>
       </c>
       <c r="C25" t="n">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="D25" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Production of Fresh potatoes</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Farm product price index (FPPI)</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>7.000000000000001</v>
+      </c>
+      <c r="J25" t="n">
         <v>9</v>
       </c>
-      <c r="E25" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Production of Wheat flour</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>50</v>
-      </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
+        <v>14</v>
+      </c>
+      <c r="L25" t="n">
+        <v>14</v>
+      </c>
+      <c r="M25" t="n">
+        <v>17</v>
+      </c>
+      <c r="N25" t="n">
+        <v>23</v>
+      </c>
+      <c r="O25" t="n">
+        <v>54</v>
+      </c>
+      <c r="P25" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>39</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
         <v>10</v>
       </c>
-      <c r="K25" t="n">
-        <v>72</v>
-      </c>
-      <c r="L25" t="n">
-        <v>100</v>
-      </c>
-      <c r="M25" t="n">
-        <v>66</v>
-      </c>
-      <c r="N25" t="n">
-        <v>71</v>
-      </c>
-      <c r="O25" t="n">
-        <v>56.99999999999999</v>
-      </c>
-      <c r="P25" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>11</v>
-      </c>
-      <c r="R25" t="n">
-        <v>26</v>
-      </c>
-      <c r="S25" t="n">
-        <v>14</v>
-      </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>The graph shows the production of wheat flour (in tonnes) in Canada in the year 2018. Production is very different over the year. While a significant decline in production can be observed from January to February, production continues to rise until April, reaching its annual maximum of more than 42000 tonnes. This is followed by a more or less constant decline, until in December with 10000 tonnes the minimum of production is reached.</t>
+          <t>the production of fresh potatoes in canada 2017 shows the highest values during the summer months. in particular, the production reports its maximum value during the month of august. it remain quite steady during the other months of the year. the minimum value was during october 2017.</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>The graph shows the TKN_About  (in TKN_UOM ) in  TKN_Geo  in the year  TKN_Year . Production is very different over the year. While a significant decline in production can be observed from January to February, production continues to rise until April, reaching its annual maximum of more than 99 TKN_UOM . This is followed by a more or less constant decline, until in December with -32 TKN_UOM  the minimum of production is reached.</t>
+          <t>the TKN_About  in canada  TKN_Year  shows the highest values during the summer months. in particular, the production reports its maximum value during the month of august. it remain quite steady during the other months of the year. the minimum value was during october  TKN_Year .</t>
         </is>
       </c>
       <c r="W25" t="n">
-        <v>42184</v>
+        <v>1817</v>
       </c>
       <c r="X25" t="n">
-        <v>17805</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="26">
@@ -2504,16 +2504,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="C26" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E26" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -2522,65 +2522,65 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Total United States vehicles entering</t>
+          <t>Production of Oats</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Number</t>
+          <t>Tonnes</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="K26" t="n">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="L26" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M26" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="O26" t="n">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="P26" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="Q26" t="n">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="R26" t="n">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="S26" t="n">
-        <v>15</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="T26" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>The displayed chart shows the total number of vehicles entering Canada during 2018. It's possible to see how the highest values have been recorded during the spring and summer months. In particular, the maximum number of cars entering Canada has been reached July and a August. The months with minimum values have been January and February.</t>
+          <t>the production of oats strongly fluctuated over the 2017 in canada. it doesn't really have an ascendant or descendant trend. the most significant dip has been recorded in may. the most considerable peak was recorded in september 2017.</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>The displayed chart shows the total TKN_UOM  of vehicles entering  TKN_Geo  during  TKN_Year . It's possible to see how the highest values have been recorded during the spring and summer months. In particular, the maximum TKN_UOM  of cars entering  TKN_Geo  has been reached July and a August. The months with minimum values have been January and February.</t>
+          <t>the TKN_About  strongly fluctuated over the  TKN_Year  in canada. it doesn't really have an ascendant or descendant trend. the most significant dip has been recorded in may. the most considerable peak was recorded in september  TKN_Year .</t>
         </is>
       </c>
       <c r="W26" t="n">
-        <v>1193966</v>
+        <v>205171</v>
       </c>
       <c r="X26" t="n">
-        <v>572090</v>
+        <v>64724</v>
       </c>
     </row>
     <row r="27">
@@ -2588,13 +2588,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>214</v>
+        <v>268</v>
       </c>
       <c r="C27" t="n">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="D27" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E27" t="n">
         <v>2018</v>
@@ -2606,65 +2606,65 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Total United States vehicles entering</t>
+          <t>Production of Unprocessed milk</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Number</t>
+          <t>Farm product price index (FPPI)</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K27" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L27" t="n">
-        <v>15</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="M27" t="n">
-        <v>42</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="N27" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="P27" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="Q27" t="n">
-        <v>52</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="R27" t="n">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="S27" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="T27" t="n">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>The graph indicates the entering vehicles from the united states in canada in the year of 2018. It is noticeable that the number is rising sharply by the middle of the year, reaching a maximum of 1200000 in August. Then the value is strong again until the end of the year.</t>
+          <t>the production of unprocessed milk in canada has been substantially growing over 2018. in particular, during the first few months of the year the values have been slightly decreasing. but then from june over it rapidly increased, reaching it peaks on november 2018. the minimum production value during 2018 has been reported during june.</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>The graph indicates the TKN_About  in canada in the year of  TKN_Year . It is noticeable that the TKN_UOM  is rising sharply by the middle of the year, reaching a maximum of 101 in August. Then the value is strong again until the end of the year.</t>
+          <t>the TKN_About  in canada has been substantially growing over  TKN_Year . in particular, during the first few months of the year the values have been slightly decreasing. but then from june over it rapidly increased, reaching it peaks on november  TKN_Year . the minimum production value during  TKN_Year  has been reported during june.</t>
         </is>
       </c>
       <c r="W27" t="n">
-        <v>1193966</v>
+        <v>1140</v>
       </c>
       <c r="X27" t="n">
-        <v>572090</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="28">
@@ -2672,16 +2672,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>230</v>
+        <v>273</v>
       </c>
       <c r="C28" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -2690,65 +2690,65 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Production of Chickens, turkeys, chicks, poults</t>
+          <t>Import of creamery butter</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Farm product price index (FPPI)</t>
+          <t>Tonnes</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="K28" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L28" t="n">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="M28" t="n">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="N28" t="n">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="O28" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="P28" t="n">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="Q28" t="n">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="R28" t="n">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="S28" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="T28" t="n">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>2017: Production of chickens, turkeys, chicks, poults in Canada, with a peak in may and the lowest production in february.</t>
+          <t>it's possible to see how the import value of creamery butter in canada presented several fluctuations over the year. in particular during the first few months different peaks and dips have been recorded. then the import value rapidly increased from august to november. it reached its maximum value during the month of november. the minimum value was in january 2016.</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>TKN_Year : TKN_About  in  TKN_Geo , with a peak in may and the lowest production in february.</t>
+          <t>it's possible to see how the TKN_About  in canada presented several fluctuations over the year. in particular during the first few months different peaks and dips have been recorded. then the import value rapidly increased from august to november. it reached its maximum value during the month of november. the minimum value was in january  TKN_Year .</t>
         </is>
       </c>
       <c r="W28" t="n">
-        <v>1215</v>
+        <v>3057</v>
       </c>
       <c r="X28" t="n">
-        <v>1189</v>
+        <v>896</v>
       </c>
     </row>
     <row r="29">
@@ -2756,16 +2756,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="C29" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -2774,65 +2774,65 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Import of creamery butter</t>
+          <t>Production of Unprocessed milk</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Tonnes</t>
+          <t>Farm product price index (FPPI)</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J29" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="K29" t="n">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="L29" t="n">
-        <v>41</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="M29" t="n">
-        <v>33</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="N29" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="P29" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="R29" t="n">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="S29" t="n">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="T29" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>This is a line graph showing the total 2017 imports of creamery butter to Canada in Tonnes. The graph has significant fluctuations between each month. There is a substantial spike in June, which was the peak month at over 2500 tonnes. There is also a clear dip in September, which was the lowest month at under 750 tonnes.</t>
+          <t>this graph depicts the production of unprocessed milk in canada during 2018. the given unit is the farm product price index (fppi). the graph represents a parable throughout the year. it starts at 1050 during january, after which a steady decline can be observed, reaching the lowest production value in june at 1003. during the following months production rapidly increases until the maximum is reached in november at approximately 1140. there is a small decrease in december.</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>This is a line graph showing the total  TKN_Year  imports TKN_About  to  TKN_Geo  in  TKN_UOM . The graph has significant fluctuations between each month. There is a substantial spike in June, which was the peak month at over 97 tonnes. There is also a clear dip in September, which was the lowest month at under 4 tonnes.</t>
+          <t>this graph depicts the TKN_About  in canada during  TKN_Year . the given unit is TKN_UOM  (fppi). the graph represents a parable throughout the year. it starts at 34 during january, after which a steady decline can be observed, reaching the lowest production value in june at 0. during the following months production rapidly increases until the maximum is reached in november at approximately 100. there is a small decrease in december.</t>
         </is>
       </c>
       <c r="W29" t="n">
-        <v>2554</v>
+        <v>1140</v>
       </c>
       <c r="X29" t="n">
-        <v>668</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="30">
@@ -2840,83 +2840,83 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>237</v>
+        <v>283</v>
       </c>
       <c r="C30" t="n">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="D30" t="n">
+        <v>9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Production of Canola</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Tonnes</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>69</v>
+      </c>
+      <c r="J30" t="n">
         <v>6</v>
       </c>
-      <c r="E30" t="n">
-        <v>2016</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Commercial software prince index</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ID 185</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>100</v>
-      </c>
-      <c r="J30" t="n">
-        <v>79</v>
-      </c>
       <c r="K30" t="n">
+        <v>36</v>
+      </c>
+      <c r="L30" t="n">
+        <v>45</v>
+      </c>
+      <c r="M30" t="n">
+        <v>34</v>
+      </c>
+      <c r="N30" t="n">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="O30" t="n">
+        <v>13</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>6</v>
+      </c>
+      <c r="R30" t="n">
+        <v>100</v>
+      </c>
+      <c r="S30" t="n">
         <v>35</v>
       </c>
-      <c r="L30" t="n">
-        <v>16</v>
-      </c>
-      <c r="M30" t="n">
-        <v>23</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>16</v>
-      </c>
-      <c r="P30" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>9</v>
-      </c>
-      <c r="R30" t="n">
-        <v>23</v>
-      </c>
-      <c r="S30" t="n">
-        <v>33</v>
-      </c>
       <c r="T30" t="n">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>The commercial software price index in Canada decreased over 2016. It's clearly possible to see how it rapidly drop from January to April. After that, the price index values have been fluctuating for most of the year.</t>
+          <t>this graph represents the canadian production of canola in 2018. the given unit are tonnes. production starts off at approximately 1150000 during january, after which a sharp decline is observed during february, reaching below 600000. production fluctuates between march and june, after which a rapid decline takes place again, reaching the lowest production values of the year in august at 500000. staying mostly constant in september, there is a significant rise peaking in october above 1400000. production of canola declines again during november, and hardly changes for december at around 900000.</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>The TKN_About  in  TKN_Geo  decreased over  TKN_Year . It's clearly possible to see how it rapidly drop from January to April. After that, the price index values have been fluctuating for most of the year.</t>
+          <t>this graph represents the canadian TKN_About  in  TKN_Year . the given unit are tonnes. production starts off at approximately 70 during january, after which a sharp decline is observed during february, reaching below 10. production fluctuates between march and june, after which a rapid decline takes place again, reaching the lowest production values of the year in august at -1. staying mostly constant in september, there is a significant rise peaking in october above 97. TKN_About  declines again during november, and hardly changes for december at around 42.</t>
         </is>
       </c>
       <c r="W30" t="n">
-        <v>1218</v>
+        <v>1432136</v>
       </c>
       <c r="X30" t="n">
-        <v>1175</v>
+        <v>506704</v>
       </c>
     </row>
     <row r="31">
@@ -2924,16 +2924,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="C31" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2942,65 +2942,65 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Total softwood, production</t>
+          <t>Supply of creamery butter</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Cubic metres</t>
+          <t>Tonnes</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>56.00000000000001</v>
+        <v>40</v>
       </c>
       <c r="K31" t="n">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="L31" t="n">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="M31" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="N31" t="n">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="O31" t="n">
-        <v>56.99999999999999</v>
+        <v>100</v>
       </c>
       <c r="P31" t="n">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="Q31" t="n">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="R31" t="n">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="S31" t="n">
-        <v>60</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>This graph depicts the total Canadian softwood production in cubic metres in 2018. The unit given is cubic metres. Production starts at around 5600 in January and drops to approximately 5180 in February. It then fluctuates around 5800 between the months of March and May, until it drops back to same production numbers of February during July. Production of softwood fluctuates between July until October, reaching around 5600. Afterwards a sharp decline can be observed until December, which marks the lowest production numbers for this year at around 4200.</t>
+          <t>this graph represents the canadian supply of creamery butter (in tonnes) during 2016. the lowest value can be observed in january with 21000 tonnes. supply increases during february, remains almost unchanged throughout march and sharply increases during the following months until it reaches its peak in july with 29000 tonnes. there is a sharp decline in supply of creamery butter from july until september. the supply remains stable during october and experiences a small rise during november.</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>This graph depicts the TKN_About  in TKN_UOM  in  TKN_Year . The unit given is TKN_UOM . Production starts at around 85 in January and drops to approximately 59 in February. It then fluctuates around 98 between the months of March and May, until it drops back to same production numbers of February during July. Production of softwood fluctuates between July until October, reaching around 85. Afterwards a sharp decline can be observed until December, which marks the lowest production numbers for this year at around -2.</t>
+          <t>this graph represents the canadian TKN_About  (in tonnes) during  TKN_Year . the lowest value can be observed in january with 1 tonnes. supply increases during february, remains almost unchanged throughout march and sharply increases during the following months until it reaches its peak in july with 101 tonnes. there is a sharp decline in TKN_About  from july until september. the supply remains stable during october and experiences a small rise during november.</t>
         </is>
       </c>
       <c r="W31" t="n">
-        <v>5839.2</v>
+        <v>28901</v>
       </c>
       <c r="X31" t="n">
-        <v>4238.6</v>
+        <v>20923</v>
       </c>
     </row>
     <row r="32">
@@ -3008,13 +3008,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="C32" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
         <v>2018</v>
@@ -3026,485 +3026,65 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Total farm production index</t>
+          <t>Production of creamery butter</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Farm product price index (FPPI)</t>
+          <t>Tonnes</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="J32" t="n">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="K32" t="n">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="L32" t="n">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="M32" t="n">
-        <v>57.99999999999999</v>
+        <v>51</v>
       </c>
       <c r="N32" t="n">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="O32" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
         <v>40</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>3</v>
-      </c>
-      <c r="R32" t="n">
-        <v>28</v>
       </c>
       <c r="S32" t="n">
         <v>13</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>This graph illustrates values about the total farm production index in Canada during 2018. Those values are described using the farm product price index (FPPI). It's clearly possible to see how the maximum values of production are registered during the summer months. In particular, the highest production value was during July 2018. At the same time, the lowest one was in December.</t>
+          <t>the production of creamery butter in canada reported a not homogeneous trend over 2018. the maximum value was recorded during january. after that, several oscillations have been recorded over the year. in particular, a big drop was recorded between the months of april and june. the value keep fluactuating over the last few months of the year.</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>This graph illustrates values about the TKN_About  in  TKN_Geo  during  TKN_Year . Those values are described using TKN_UOM  (FPPI). It's clearly possible to see how the maximum values of production are registered during the summer months. In particular, the highest production value was during July  TKN_Year . At the same time, the lowest one was in December.</t>
+          <t>the TKN_About  in canada reported a not homogeneous trend over  TKN_Year . the maximum value was recorded during january. after that, several oscillations have been recorded over the year. in particular, a big drop was recorded between the months of april and june. the value keep fluactuating over the last few months of the year.</t>
         </is>
       </c>
       <c r="W32" t="n">
-        <v>1337</v>
+        <v>12767</v>
       </c>
       <c r="X32" t="n">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>284</v>
-      </c>
-      <c r="C33" t="n">
-        <v>76</v>
-      </c>
-      <c r="D33" t="n">
-        <v>7</v>
-      </c>
-      <c r="E33" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Price index: Servers</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ID 708</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>81</v>
-      </c>
-      <c r="J33" t="n">
-        <v>38</v>
-      </c>
-      <c r="K33" t="n">
-        <v>25</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>6</v>
-      </c>
-      <c r="N33" t="n">
-        <v>81</v>
-      </c>
-      <c r="O33" t="n">
-        <v>100</v>
-      </c>
-      <c r="P33" t="n">
-        <v>88</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>69</v>
-      </c>
-      <c r="R33" t="n">
-        <v>56.00000000000001</v>
-      </c>
-      <c r="S33" t="n">
-        <v>69</v>
-      </c>
-      <c r="T33" t="n">
-        <v>69</v>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>This figure represents the Canadian price index of servers in 2018. The price index starts off at 1010 during January, and keeps decreasing throughout the following months, until it reaches its minimum value of below 998 in April. From then on there is a sharp increase, peaking in July at above 1012. During the following months a moderate decrease is experienced until October. The price index remains unchanged during November and December at 1008.</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>This figure represents the Canadian TKN_About  in  TKN_Year . The price index starts off at 81 during January, and keeps decreasing throughout the following months, until it reaches its minimum value of below 6 in April. From then on there is a sharp increase, peaking in July at above 94. During the following months a moderate decrease is experienced until October. The price index remains unchanged during November and December at 69.</t>
-        </is>
-      </c>
-      <c r="W33" t="n">
-        <v>1013</v>
-      </c>
-      <c r="X33" t="n">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>287</v>
-      </c>
-      <c r="C34" t="n">
-        <v>90</v>
-      </c>
-      <c r="D34" t="n">
-        <v>9</v>
-      </c>
-      <c r="E34" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Production of Malt</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>35</v>
-      </c>
-      <c r="J34" t="n">
-        <v>33</v>
-      </c>
-      <c r="K34" t="n">
-        <v>100</v>
-      </c>
-      <c r="L34" t="n">
-        <v>39</v>
-      </c>
-      <c r="M34" t="n">
-        <v>66</v>
-      </c>
-      <c r="N34" t="n">
-        <v>80</v>
-      </c>
-      <c r="O34" t="n">
-        <v>86</v>
-      </c>
-      <c r="P34" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>15</v>
-      </c>
-      <c r="S34" t="n">
-        <v>22</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>The production of malt in Canada reported some strong oscillations of the value during 2018. As it's possible to see from the graph, several peaks and dips have been registered. The most significant peaks were during March and July. The most considerable dips during September and December. Furthermore, a marked drop of the production value was registered between July and August 2018.</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>The TKN_About  in  TKN_Geo  reported some strong oscillations of the value during  TKN_Year . As it's possible to see from the graph, several peaks and dips have been registered. The most significant peaks were during March and July. The most considerable dips during September and December. Furthermore, a marked drop of the production value was registered between July and August  TKN_Year .</t>
-        </is>
-      </c>
-      <c r="W34" t="n">
-        <v>54960</v>
-      </c>
-      <c r="X34" t="n">
-        <v>42553</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>293</v>
-      </c>
-      <c r="C35" t="n">
-        <v>86</v>
-      </c>
-      <c r="D35" t="n">
-        <v>9</v>
-      </c>
-      <c r="E35" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Production of Oats</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>56.99999999999999</v>
-      </c>
-      <c r="J35" t="n">
-        <v>10</v>
-      </c>
-      <c r="K35" t="n">
-        <v>40</v>
-      </c>
-      <c r="L35" t="n">
-        <v>40</v>
-      </c>
-      <c r="M35" t="n">
-        <v>46</v>
-      </c>
-      <c r="N35" t="n">
-        <v>18</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>59</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>91</v>
-      </c>
-      <c r="R35" t="n">
-        <v>100</v>
-      </c>
-      <c r="S35" t="n">
-        <v>40</v>
-      </c>
-      <c r="T35" t="n">
-        <v>44</v>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>The following graph depicts the Canadian production of oats in tonnes during 2018. In January approximately 160000 tonnes were produced, after which a sharp drop can be observed for February, reaching slightly below 100000. Production remain mostly stable throughout March to May, with the lowest production coming up in July at 80000. Production sharply increases during the following months, until it peaks in October at approximately 210000. Following this there is a drop, and production remains almost unchanged during November and December at 140000.</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>The following graph depicts the Canadian TKN_About  in TKN_UOM  during  TKN_Year . In January approximately 60 TKN_UOM  were produced, after which a sharp drop can be observed for February, reaching slightly below 15. Production remain mostly stable throughout March to May, with the lowest production coming up in July at 0. Production sharply increases during the following months, until it peaks in October at approximately 97. Following this there is a drop, and production remains almost unchanged during November and December at 45.</t>
-        </is>
-      </c>
-      <c r="W35" t="n">
-        <v>213885</v>
-      </c>
-      <c r="X35" t="n">
-        <v>80033</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>298</v>
-      </c>
-      <c r="C36" t="n">
-        <v>78</v>
-      </c>
-      <c r="D36" t="n">
-        <v>8</v>
-      </c>
-      <c r="E36" t="n">
-        <v>2017</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Total Canadian vehicles returning to the country</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Number</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>15</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>33</v>
-      </c>
-      <c r="L36" t="n">
-        <v>43</v>
-      </c>
-      <c r="M36" t="n">
-        <v>48</v>
-      </c>
-      <c r="N36" t="n">
-        <v>50</v>
-      </c>
-      <c r="O36" t="n">
-        <v>78</v>
-      </c>
-      <c r="P36" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>64</v>
-      </c>
-      <c r="R36" t="n">
-        <v>55.00000000000001</v>
-      </c>
-      <c r="S36" t="n">
-        <v>41</v>
-      </c>
-      <c r="T36" t="n">
-        <v>33</v>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>The number of canadian vehicles returning to the country during 2017 registered the highest values during the summer months. In particular, the maximum number was recorded during August 2017. At the same time, the lowest value of the year was during the month of February. During the last few months of the year the number of vehicles returning to the country slowly decreased.</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>The TKN_UOM  of TKN_About  during  TKN_Year  registered the highest values during the summer months. In particular, the maximum TKN_UOM  was recorded during August  TKN_Year . At the same time, the lowest value of the year was during the month of February. During the last few months of the year the TKN_UOM  of vehicles returning to the country slowly decreased.</t>
-        </is>
-      </c>
-      <c r="W36" t="n">
-        <v>2329640</v>
-      </c>
-      <c r="X36" t="n">
-        <v>1374721</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>303</v>
-      </c>
-      <c r="C37" t="n">
-        <v>52</v>
-      </c>
-      <c r="D37" t="n">
-        <v>5</v>
-      </c>
-      <c r="E37" t="n">
-        <v>2017</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Production of Unprocessed milk</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Farm product price index (FPPI)</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
-        <v>56.99999999999999</v>
-      </c>
-      <c r="J37" t="n">
-        <v>100</v>
-      </c>
-      <c r="K37" t="n">
-        <v>67</v>
-      </c>
-      <c r="L37" t="n">
-        <v>25</v>
-      </c>
-      <c r="M37" t="n">
-        <v>31</v>
-      </c>
-      <c r="N37" t="n">
-        <v>16</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>37</v>
-      </c>
-      <c r="R37" t="n">
-        <v>92</v>
-      </c>
-      <c r="S37" t="n">
-        <v>71</v>
-      </c>
-      <c r="T37" t="n">
-        <v>27</v>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>As it's possible to see from the graph, the production of unprocessed milk in Canada reported two significant peaks during 2017, one in February and one in October. Futhermore, from February to July the production value strongly decrease, reaching the yearly minimum value during July. It's clearly possible to see how the summer months are the period with the least production of unprocessed milk.</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>As it's possible to see from the graph, the TKN_About  in  TKN_Geo  reported two significant peaks during  TKN_Year , one in February and one in October. Futhermore, from February to July the production value strongly decrease, reaching the yearly minimum value during July. It's clearly possible to see how the summer months are the period with the least TKN_About .</t>
-        </is>
-      </c>
-      <c r="W37" t="n">
-        <v>1095</v>
-      </c>
-      <c r="X37" t="n">
-        <v>1044</v>
+        <v>7249</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/Captions collection/v3_test_captions_collection.xlsx
+++ b/Dataset/Captions collection/v3_test_captions_collection.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X32"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,13 +488,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
         <v>2016</v>
@@ -506,65 +506,65 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Import of creamery butter</t>
+          <t>Production of Grains</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Tonnes</t>
+          <t>Farm product price index (FPPI)</t>
         </is>
       </c>
       <c r="I2" t="n">
+        <v>93</v>
+      </c>
+      <c r="J2" t="n">
+        <v>87</v>
+      </c>
+      <c r="K2" t="n">
+        <v>92</v>
+      </c>
+      <c r="L2" t="n">
+        <v>84</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>93</v>
+      </c>
+      <c r="O2" t="n">
+        <v>61</v>
+      </c>
+      <c r="P2" t="n">
+        <v>7.000000000000001</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>49</v>
-      </c>
-      <c r="K2" t="n">
-        <v>22</v>
-      </c>
-      <c r="L2" t="n">
-        <v>37</v>
-      </c>
-      <c r="M2" t="n">
-        <v>39</v>
-      </c>
-      <c r="N2" t="n">
-        <v>38</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20</v>
-      </c>
-      <c r="P2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>37</v>
-      </c>
       <c r="R2" t="n">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="S2" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="T2" t="n">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>the following graph is about the imports of creamery butter (in tonnes) in canada during 2016. it's possible to see how the values are generally increasing over the year, with a substan raise from august until october, where the values basically tripled. the maximum value recorded over the year is during november 2016, where the recorded production has been over 3000 tonnes.</t>
+          <t>the line chart shows the farm product price index (fppi) about production of grain in canada during 2016. it's possible to see how the index has been quite steady from january to june, but then a relevant drop has been recorded from june to august, where the index dropped from 1100 to 980. during the last few months of the year the index slowly started to increase again.</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>the following graph is about the imports TKN_About  (in tonnes) in canada during  TKN_Year . it's possible to see how the values are generally increasing over the year, with a substan raise from august until october, where the values basically tripled. the maximum value recorded over the year is during november  TKN_Year , where the recorded production has been over 97 tonnes.</t>
+          <t>the line chart shows the TKN_UOM  about TKN_About  grain in canada during  TKN_Year . it's possible to see how the index has been quite steady from january to june, but then a relevant drop has been recorded from june to august, where the index dropped from 93 to 8. during the last few months of the year the index slowly started to increase again.</t>
         </is>
       </c>
       <c r="W2" t="n">
-        <v>3057</v>
+        <v>1110</v>
       </c>
       <c r="X2" t="n">
-        <v>896</v>
+        <v>968</v>
       </c>
     </row>
     <row r="3">
@@ -572,13 +572,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C3" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
         <v>2017</v>
@@ -590,65 +590,65 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Production of Oats</t>
+          <t>Total vehicles entering Canada</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Tonnes</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>26</v>
+      </c>
+      <c r="L3" t="n">
+        <v>36</v>
+      </c>
+      <c r="M3" t="n">
+        <v>45</v>
+      </c>
+      <c r="N3" t="n">
+        <v>57.99999999999999</v>
+      </c>
+      <c r="O3" t="n">
+        <v>88</v>
+      </c>
+      <c r="P3" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q3" t="n">
         <v>60</v>
       </c>
-      <c r="L3" t="n">
-        <v>21</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>13</v>
-      </c>
-      <c r="O3" t="n">
-        <v>22</v>
-      </c>
-      <c r="P3" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>100</v>
-      </c>
       <c r="R3" t="n">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="S3" t="n">
-        <v>56.99999999999999</v>
+        <v>30</v>
       </c>
       <c r="T3" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>this graph depicts the production of oats in tonnes in canada during 2017. production shows peaks in january and march, whereas it significantly drops after march, reaching its minimum of approximately 65000 in may. for the following months production slightly increases until august. between august and september a rapid increase in production can be observed, indicating the maximum of over 200000 in september. production slowly decreases throughout the following months until december.</t>
+          <t>it shows the number of total vehicles entering canada during 2017. it's clearly possible to see how this value rapidly increase from january until the end of the summer, reaching its maximum value in august. after that, the number of vehicles entering canada decrease during the last few months of the year. the minimum value has been recorded during february.</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>this graph depicts the TKN_About  in TKN_UOM  in canada during  TKN_Year . production shows peaks in january and march, whereas it significantly drops after march, reaching its minimum of approximately 0 in may. for the following months production slightly increases until august. between august and september a rapid increase in production can be observed, indicating the maximum of over 96 in september. production slowly decreases throughout the following months until december.</t>
+          <t>it shows the TKN_UOM  of TKN_About  during  TKN_Year . it's clearly possible to see how this value rapidly increase from january until the end of the summer, reaching its maximum value in august. after that, the TKN_UOM  of vehicles entering canada decrease during the last few months of the year. the minimum value has been recorded during february.</t>
         </is>
       </c>
       <c r="W3" t="n">
-        <v>205171</v>
+        <v>3483738</v>
       </c>
       <c r="X3" t="n">
-        <v>64724</v>
+        <v>1985971</v>
       </c>
     </row>
     <row r="4">
@@ -656,13 +656,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>2016</v>
@@ -674,65 +674,65 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Supply of creamery butter</t>
+          <t>Total softwood, production</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Tonnes</t>
+          <t>Cubic metres</t>
         </is>
       </c>
       <c r="I4" t="n">
+        <v>64</v>
+      </c>
+      <c r="J4" t="n">
+        <v>72</v>
+      </c>
+      <c r="K4" t="n">
+        <v>100</v>
+      </c>
+      <c r="L4" t="n">
+        <v>95</v>
+      </c>
+      <c r="M4" t="n">
+        <v>91</v>
+      </c>
+      <c r="N4" t="n">
+        <v>83</v>
+      </c>
+      <c r="O4" t="n">
+        <v>36</v>
+      </c>
+      <c r="P4" t="n">
+        <v>81</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>95</v>
+      </c>
+      <c r="R4" t="n">
+        <v>90</v>
+      </c>
+      <c r="S4" t="n">
+        <v>100</v>
+      </c>
+      <c r="T4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>40</v>
-      </c>
-      <c r="K4" t="n">
-        <v>36</v>
-      </c>
-      <c r="L4" t="n">
-        <v>64</v>
-      </c>
-      <c r="M4" t="n">
-        <v>86</v>
-      </c>
-      <c r="N4" t="n">
-        <v>88</v>
-      </c>
-      <c r="O4" t="n">
-        <v>100</v>
-      </c>
-      <c r="P4" t="n">
-        <v>62</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>27</v>
-      </c>
-      <c r="R4" t="n">
-        <v>28</v>
-      </c>
-      <c r="S4" t="n">
-        <v>57.99999999999999</v>
-      </c>
-      <c r="T4" t="n">
-        <v>43</v>
-      </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>in the following graph is described the monthly supply of creamery butter in tonnes about canada during 2016. the minimum value has been registered during the month of january and maximum during july. furthermore, it's possible to see how the supply of creamery butter is generally higher during spring and summer.</t>
+          <t>this graph depicts the total softwood production in canada in 2016 in cubic meters. the values range from roughly 57000 in march to 46000 in december. january to march there is an increase in production, march to july production decreased and reached 50000 in july. there is another high of about 57000 cubic meters in november.</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>in the following graph is described the monthly TKN_About  in TKN_UOM  about canada during  TKN_Year . the minimum value has been registered during the month of january and maximum during july. furthermore, it's possible to see how the TKN_About  is generally higher during spring and summer.</t>
+          <t>this graph depicts the TKN_About  in canada in  TKN_Year  TKN_UOM  meters. the values range from roughly 102 in march to -1 in december. january to march there is an increase in production, march to july production decreased and reached 36 in july. there is another high of about 102 cubic meters in november.</t>
         </is>
       </c>
       <c r="W4" t="n">
-        <v>28901</v>
+        <v>56805</v>
       </c>
       <c r="X4" t="n">
-        <v>20923</v>
+        <v>46158</v>
       </c>
     </row>
     <row r="5">
@@ -740,13 +740,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
         <v>2016</v>
@@ -758,65 +758,65 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Total softwood, production</t>
+          <t>Total United States vehicles entering</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cubic metres</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="L5" t="n">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="M5" t="n">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="N5" t="n">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="O5" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="P5" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="Q5" t="n">
-        <v>95</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="R5" t="n">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="S5" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>this graph depicts the total softwood production in canada in 2016 in cubic meters. the values range from roughly 57000 in march to 46000 in december. january to march there is an increase in production, march to july production decreased and reached 50000 in july. there is another high of about 57000 cubic meters in november.</t>
+          <t>the graph illustrates the total number of vehicles from the united states entering canada. data for every month of 2016 is shown. the numbers vary for each month. a high is reached in july (about 1300000 vehicles), probably because of people going on vacation. low values can be found for the winter months, e.g., less than 700000 vehicles in january and february and roughly 700000 vehicles in november and december.</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>this graph depicts the TKN_About  in canada in  TKN_Year  TKN_UOM  meters. the values range from roughly 102 in march to -1 in december. january to march there is an increase in production, march to july production decreased and reached 36 in july. there is another high of about 102 cubic meters in november.</t>
+          <t>the graph illustrates the total TKN_UOM  of TKN_About  canada. data for every month of  TKN_Year  is shown. the TKN_UOM s vary for each month. a high is reached in july (about 110 vehicles), probably because of people going on vacation. low values can be found for the winter months, e.g., less than 11 vehicles in january and february and roughly 11 vehicles in november and december.</t>
         </is>
       </c>
       <c r="W5" t="n">
-        <v>56805</v>
+        <v>1241519</v>
       </c>
       <c r="X5" t="n">
-        <v>46158</v>
+        <v>635038</v>
       </c>
     </row>
     <row r="6">
@@ -824,13 +824,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C6" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>2018</v>
@@ -842,65 +842,65 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Production of Unprocessed milk</t>
+          <t>Total hardwood, production</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Farm product price index (FPPI)</t>
+          <t>Cubic metres</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="J6" t="n">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="K6" t="n">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="L6" t="n">
-        <v>7.000000000000001</v>
+        <v>74</v>
       </c>
       <c r="M6" t="n">
-        <v>7.000000000000001</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
+        <v>92</v>
+      </c>
+      <c r="O6" t="n">
         <v>0</v>
       </c>
-      <c r="O6" t="n">
-        <v>6</v>
-      </c>
       <c r="P6" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q6" t="n">
-        <v>57.99999999999999</v>
+        <v>73</v>
       </c>
       <c r="R6" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S6" t="n">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="T6" t="n">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>as can be seen from the graph the production of unprocessed milk in canada during 2018 had a significant growth during the second half of the year. it decreased from january to june, when it has been recorded the minimum value of the year. but then it started to rapidly increase reaching its maximum value during november 2019.</t>
+          <t>the hardwood production for canada in 2018 rapidly declined in july 2018. the production then steadily recovered until october, and then fell again until december.</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>as can be seen from the graph the TKN_About  in canada during  TKN_Year  had a significant growth during the second half of the year. it decreased from january to june, when it has been recorded the minimum value of the year. but then it started to rapidly increase reaching its maximum value during november 2019.</t>
+          <t>the TKN_About  for canada in  TKN_Year  rapidly declined in july  TKN_Year . the production then steadily recovered until october, and then fell again until december.</t>
         </is>
       </c>
       <c r="W6" t="n">
-        <v>1140</v>
+        <v>1231</v>
       </c>
       <c r="X6" t="n">
-        <v>1003</v>
+        <v>745</v>
       </c>
     </row>
     <row r="7">
@@ -908,16 +908,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="C7" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D7" t="n">
         <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Production of Unprocessed milk</t>
+          <t>Production of Fresh fruit</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -935,56 +935,56 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L7" t="n">
-        <v>7.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="O7" t="n">
-        <v>6</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="P7" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.99999999999999</v>
+        <v>34</v>
       </c>
       <c r="R7" t="n">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="S7" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="T7" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>as is shown form the graph, the production of unprocessed milk steadily increases in winter time, and steadily decreases in summer. the graph shows that production is highest in november and lowest in june.</t>
+          <t>this chart shows the production of fresh fruit, by the farm product price index, in canada in 2017. we see a generally increasing pattern throughout the year. we start at a markedly low level of production from january until may, at which point production starts to increase until july. production then falls for august to october, until surging in november and reaching a maximum in december.</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>as is shown form the graph, the TKN_About  steadily increases in winter time, and steadily decreases in summer. the graph shows that production is highest in november and lowest in june.</t>
+          <t>this chart shows the TKN_About  fruit, TKN_UOM  index, in canada in  TKN_Year . we see a generally increasing pattern throughout the year. we start at a markedly low level of production from january until may, at which point production starts to increase until july. production then falls for august to october, until surging in november and reaching a maximum in december.</t>
         </is>
       </c>
       <c r="W7" t="n">
-        <v>1140</v>
+        <v>1198</v>
       </c>
       <c r="X7" t="n">
-        <v>1003</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="8">
@@ -992,83 +992,83 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>101</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Total softwood, production</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cubic metres</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>60</v>
+      </c>
+      <c r="J8" t="n">
+        <v>43</v>
+      </c>
+      <c r="K8" t="n">
+        <v>100</v>
+      </c>
+      <c r="L8" t="n">
+        <v>68</v>
+      </c>
+      <c r="M8" t="n">
+        <v>92</v>
+      </c>
+      <c r="N8" t="n">
+        <v>66</v>
+      </c>
+      <c r="O8" t="n">
+        <v>29</v>
+      </c>
+      <c r="P8" t="n">
         <v>52</v>
       </c>
-      <c r="C8" t="n">
-        <v>17</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>House and land price index</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Index 347</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>100</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="Q8" t="n">
+        <v>56.99999999999999</v>
+      </c>
+      <c r="R8" t="n">
+        <v>81</v>
+      </c>
+      <c r="S8" t="n">
+        <v>78</v>
+      </c>
+      <c r="T8" t="n">
         <v>0</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>50</v>
-      </c>
-      <c r="O8" t="n">
-        <v>100</v>
-      </c>
-      <c r="P8" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>100</v>
-      </c>
-      <c r="R8" t="n">
-        <v>100</v>
-      </c>
-      <c r="S8" t="n">
-        <v>100</v>
-      </c>
-      <c r="T8" t="n">
-        <v>100</v>
-      </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>the following chart provides information about the house and land price index in canada during 2018. it's clearly possible to see how the index value significantly dropped down between january and february. over the next few months the index value remained stable. it raised up again during the summer, reaching the same value of january during the month of june. from june to december the index value maintained the same level.</t>
+          <t>the graph shows the production of softwood in canada over the year of 2017. the data is presented in cubic meters. according to the graph the production of softwood is the highest in march and the lowest in december.</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>the following chart provides information about TKN_About  TKN_UOM  in canada during  TKN_Year . it's clearly possible to see how the index value significantly dropped down between january and february. over the next few months the index value remained stable. it raised up again during the summer, reaching the same value of january during the month of june. from june to december the index value maintained the same level.</t>
+          <t>the graph shows TKN_About  of softwood in canada over the year of  TKN_Year . the data is presented TKN_UOM  meters. according to the graph TKN_About  of softwood is the highest in march and the lowest in december.</t>
         </is>
       </c>
       <c r="W8" t="n">
-        <v>1033</v>
+        <v>59120</v>
       </c>
       <c r="X8" t="n">
-        <v>1031</v>
+        <v>46885</v>
       </c>
     </row>
     <row r="9">
@@ -1076,10 +1076,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D9" t="n">
         <v>3</v>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Production of creamery butter</t>
+          <t>Supply of creamery butter</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1103,56 +1103,56 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="K9" t="n">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="L9" t="n">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="M9" t="n">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="N9" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="O9" t="n">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="R9" t="n">
-        <v>40</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="S9" t="n">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="T9" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>the production of creamy butter reached its highest point in january of 2018. thereafter, production declined in february and then recovered in may. in the months following production steadily decreased until september. thereafter, the graph fluctuated from october to december.</t>
+          <t>the data presented in the graph shows the supply of creamery butter in canada over the year of 2018 in tonnes. the lowest supply of creamery butter can be observed in january. the supply increases constantly over the next months and reaches its highest value in june, after which it decreases with a similar rate and reaches a local minimum in september.</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>the TKN_About  reached its highest point in january of  TKN_Year . thereafter, production declined in february and then recovered in may. in the months following production steadily decreased until september. thereafter, the graph fluctuated from october to december.</t>
+          <t>the data presented in the graph shows the TKN_About  in canada over the year of  TKN_Year  in TKN_UOM . the lowest TKN_About  can be observed in january. the supply increases constantly over the next months and reaches its highest value in june, after which it decreases with a similar rate and reaches a local minimum in september.</t>
         </is>
       </c>
       <c r="W9" t="n">
-        <v>12767</v>
+        <v>54592</v>
       </c>
       <c r="X9" t="n">
-        <v>7249</v>
+        <v>35090</v>
       </c>
     </row>
     <row r="10">
@@ -1160,13 +1160,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="C10" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>2017</v>
@@ -1178,65 +1178,65 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Production of Fresh potatoes</t>
+          <t>Total softwood, production</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Farm product price index (FPPI)</t>
+          <t>Cubic metres</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>7.000000000000001</v>
+        <v>60</v>
       </c>
       <c r="J10" t="n">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="K10" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="L10" t="n">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="M10" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="N10" t="n">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="O10" t="n">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="P10" t="n">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="Q10" t="n">
-        <v>39</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="R10" t="n">
+        <v>81</v>
+      </c>
+      <c r="S10" t="n">
+        <v>78</v>
+      </c>
+      <c r="T10" t="n">
         <v>0</v>
       </c>
-      <c r="S10" t="n">
-        <v>10</v>
-      </c>
-      <c r="T10" t="n">
-        <v>12</v>
-      </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>the graph illustrated the production of fresh potatoes in canada in 2017. the measurement used is the farm product price index (fppi): there is a clear peak in august, reaching an index of more than 1800.</t>
+          <t>the chart shows the variation of softwood production in canada during the year 2017. the production reaches its top on march after which we observe an oscillating period until november, when there is a steeply fall.</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>the graph illustrated the TKN_About  in canada in  TKN_Year . the measurement used is TKN_UOM  (fppi): there is a clear peak in august, reaching an index of more than 96.</t>
+          <t>the chart shows the variation of TKN_About  in canada during the year  TKN_Year . the production reaches its top on march after which we observe an oscillating period until november, when there is a steeply fall.</t>
         </is>
       </c>
       <c r="W10" t="n">
-        <v>1817</v>
+        <v>59120</v>
       </c>
       <c r="X10" t="n">
-        <v>1417</v>
+        <v>46885</v>
       </c>
     </row>
     <row r="11">
@@ -1244,16 +1244,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="C11" t="n">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1262,65 +1262,65 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Production of Canola</t>
+          <t>Total softwood, production</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Tonnes</t>
+          <t>Cubic metres</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="K11" t="n">
+        <v>100</v>
+      </c>
+      <c r="L11" t="n">
+        <v>95</v>
+      </c>
+      <c r="M11" t="n">
+        <v>91</v>
+      </c>
+      <c r="N11" t="n">
+        <v>83</v>
+      </c>
+      <c r="O11" t="n">
         <v>36</v>
       </c>
-      <c r="L11" t="n">
-        <v>45</v>
-      </c>
-      <c r="M11" t="n">
-        <v>34</v>
-      </c>
-      <c r="N11" t="n">
-        <v>56.00000000000001</v>
-      </c>
-      <c r="O11" t="n">
-        <v>13</v>
-      </c>
       <c r="P11" t="n">
+        <v>81</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>95</v>
+      </c>
+      <c r="R11" t="n">
+        <v>90</v>
+      </c>
+      <c r="S11" t="n">
+        <v>100</v>
+      </c>
+      <c r="T11" t="n">
         <v>0</v>
       </c>
-      <c r="Q11" t="n">
-        <v>6</v>
-      </c>
-      <c r="R11" t="n">
-        <v>100</v>
-      </c>
-      <c r="S11" t="n">
-        <v>35</v>
-      </c>
-      <c r="T11" t="n">
-        <v>47</v>
-      </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>a figure indicating canola production in canada each month in 2018.  there do not seem to be any seasonal trends in the production.  the maximum production occurred in october, at over 1400000 tonnes; and production fell below 600000 tonnes in february, august and september.</t>
+          <t>this graph depicts the total softwood production in cubic metres of canada in 2016. production starts at approximately 53000 cubic metres in january and increases to one of its maximum values of 57000 cubic metres in march. the following months show first a slow decrease, but then a sharp decrease in july. from july until november production gradually increases again until it reaches its second maximum of 57000 cubic metres in november. there is a sharp drop from november onwards, reaching its minimum value of 46000 cubic metres in december.</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>a figure indicating TKN_About  in canada each month in  TKN_Year .  there do not seem to be any seasonal trends in the production.  the maximum production occurred in october, at over 97 TKN_UOM ; and production fell below 10 TKN_UOM  in february, august and september.</t>
+          <t>this graph depicts the TKN_About  in TKN_UOM  of canada in  TKN_Year . production starts at approximately 64 TKN_UOM  in january and increases to one of its maximum values of 102 TKN_UOM  in march. the following months show first a slow decrease, but then a sharp decrease in july. from july until november production gradually increases again until it reaches its second maximum of 102 TKN_UOM  in november. there is a sharp drop from november onwards, reaching its minimum value of -1 TKN_UOM  in december.</t>
         </is>
       </c>
       <c r="W11" t="n">
-        <v>1432136</v>
+        <v>56805</v>
       </c>
       <c r="X11" t="n">
-        <v>506704</v>
+        <v>46158</v>
       </c>
     </row>
     <row r="12">
@@ -1328,16 +1328,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1355,56 +1355,56 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="J12" t="n">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="K12" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="L12" t="n">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="M12" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.99999999999999</v>
+        <v>73</v>
       </c>
       <c r="R12" t="n">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="S12" t="n">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="T12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>the following line chart provides information about the total production of hardwood in canada during 2017. the production values have been described using cubic metres as unit of measure. the values have been strongly fluactuating over the year. it shows several peaks and dips over the year. even that, the maximum value has been recorded during march and the minimum during july.</t>
+          <t>the shown line chart illustrates the production values about total hardwood in canada during 2018. the production is described using cubic metres as unit of measure. the values have been significantly oscillating over the year. in particular, the production reached its maximum value during the month of may and its minimum value during july. after july, it rapidly grown up again, reaching an another peak during october.</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>the following line chart provides information about the TKN_About  of hardwood in canada during  TKN_Year . the production values have been described using TKN_UOM  as unit of measure. the values have been strongly fluactuating over the year. it shows several peaks and dips over the year. even that, the maximum value has been recorded during march and the minimum during july.</t>
+          <t>the shown line chart illustrates the TKN_About  hardwood in canada during  TKN_Year . the production is described using TKN_UOM  as unit of measure. the values have been significantly oscillating over the year. in particular, the production reached its maximum value during the month of may and its minimum value during july. after july, it rapidly grown up again, reaching an another peak during october.</t>
         </is>
       </c>
       <c r="W12" t="n">
-        <v>1506</v>
+        <v>1231</v>
       </c>
       <c r="X12" t="n">
-        <v>1051</v>
+        <v>745</v>
       </c>
     </row>
     <row r="13">
@@ -1412,16 +1412,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Total hardwood, production</t>
+          <t>Total softwood, production</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1439,56 +1439,56 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="J13" t="n">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="K13" t="n">
         <v>100</v>
       </c>
       <c r="L13" t="n">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="M13" t="n">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="N13" t="n">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="O13" t="n">
+        <v>36</v>
+      </c>
+      <c r="P13" t="n">
+        <v>81</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>95</v>
+      </c>
+      <c r="R13" t="n">
+        <v>90</v>
+      </c>
+      <c r="S13" t="n">
+        <v>100</v>
+      </c>
+      <c r="T13" t="n">
         <v>0</v>
       </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>56.99999999999999</v>
-      </c>
-      <c r="R13" t="n">
-        <v>42</v>
-      </c>
-      <c r="S13" t="n">
-        <v>85</v>
-      </c>
-      <c r="T13" t="n">
-        <v>22</v>
-      </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>hardwood production in canada for each month of 2017.  while production varied between less than 1100 cubic metres and over 1500 cubic metres in a given month, there do not seem to be any trends in the value over time.</t>
+          <t>this line graph displays total softwood production in cubic metres in canada for 2016. the amount fluctuates with an increase from january to march, followed by a slow decrease from march to june.  a steep reduction follows in july, matched by an equally steep increase in august.  a steady increase from august to november is followed by a dramatic reduction in december to a yearly low of 46000 cubic metres.</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>hardwood production in canada for each month of  TKN_Year .  while production varied between less than 11 TKN_UOM  and over 99 TKN_UOM  in a given month, there do not seem to be any trends in the value over time.</t>
+          <t>this line graph displays TKN_About  in TKN_UOM  in canada for  TKN_Year . the amount fluctuates with an increase from january to march, followed by a slow decrease from march to june.  a steep reduction follows in july, matched by an equally steep increase in august.  a steady increase from august to november is followed by a dramatic reduction in december to a yearly low of -1 TKN_UOM .</t>
         </is>
       </c>
       <c r="W13" t="n">
-        <v>1506</v>
+        <v>56805</v>
       </c>
       <c r="X13" t="n">
-        <v>1051</v>
+        <v>46158</v>
       </c>
     </row>
     <row r="14">
@@ -1496,13 +1496,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
         <v>2016</v>
@@ -1514,65 +1514,65 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Total softwood, production</t>
+          <t>Total United States vehicles entering</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cubic metres</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="L14" t="n">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="M14" t="n">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="N14" t="n">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="O14" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="P14" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="Q14" t="n">
-        <v>95</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="R14" t="n">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="S14" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>this graph depicts the total softwood production in cubic metres of canada in 2016. production starts at approximately 53000 cubic metres in january and increases to one of its maximum values of 57000 cubic metres in march. the following months show first a slow decrease, but then a sharp decrease in july. from july until november production gradually increases again until it reaches its second maximum of 57000 cubic metres in november. there is a sharp drop from november onwards, reaching its minimum value of 46000 cubic metres in december.</t>
+          <t>this graph shows the number of vehicles entering the united states in 2016. the number of cars entering is about 700000 at the start and end of the year. it increases towards summer. there is a peak in the middle of the year at 1250000 in july.</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>this graph depicts the TKN_About  in TKN_UOM  of canada in  TKN_Year . production starts at approximately 64 TKN_UOM  in january and increases to one of its maximum values of 102 TKN_UOM  in march. the following months show first a slow decrease, but then a sharp decrease in july. from july until november production gradually increases again until it reaches its second maximum of 102 TKN_UOM  in november. there is a sharp drop from november onwards, reaching its minimum value of -1 TKN_UOM  in december.</t>
+          <t>this graph shows the TKN_UOM  of TKN_About  in  TKN_Year . the TKN_UOM  of cars entering is about 11 at the start and end of the year. it increases towards summer. there is a peak in the middle of the year at 101 in july.</t>
         </is>
       </c>
       <c r="W14" t="n">
-        <v>56805</v>
+        <v>1241519</v>
       </c>
       <c r="X14" t="n">
-        <v>46158</v>
+        <v>635038</v>
       </c>
     </row>
     <row r="15">
@@ -1580,13 +1580,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>123</v>
+        <v>184</v>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
         <v>2016</v>
@@ -1598,65 +1598,65 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Total softwood, production</t>
+          <t>Production of Grains</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cubic metres</t>
+          <t>Farm product price index (FPPI)</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="J15" t="n">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="K15" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="L15" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="M15" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="O15" t="n">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="P15" t="n">
-        <v>81</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="Q15" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="S15" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>this line graph displays total softwood production in cubic metres in canada for 2016. the amount fluctuates with an increase from january to march, followed by a slow decrease from march to june.  a steep reduction follows in july, matched by an equally steep increase in august.  a steady increase from august to november is followed by a dramatic reduction in december to a yearly low of 46000 cubic metres.</t>
+          <t>the aforementioned graph shows the production of grains in fppi units divided by months of the year 2016. starting point is at 1100 in january and after some slight ups and downs it increased to around 1115 in may only to plummet over the next few months to its lowest point around 970 in september just to increase to 1030 in december again.</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>this line graph displays TKN_About  in TKN_UOM  in canada for  TKN_Year . the amount fluctuates with an increase from january to march, followed by a slow decrease from march to june.  a steep reduction follows in july, matched by an equally steep increase in august.  a steady increase from august to november is followed by a dramatic reduction in december to a yearly low of -1 TKN_UOM .</t>
+          <t>the aforementioned graph shows the TKN_About  in fppi units divided by months of the year  TKN_Year . starting point is at 93 in january and after some slight ups and downs it increased to around 104 in may only to plummet over the next few months to its lowest point around 1 in september just to increase to 44 in december again.</t>
         </is>
       </c>
       <c r="W15" t="n">
-        <v>56805</v>
+        <v>1110</v>
       </c>
       <c r="X15" t="n">
-        <v>46158</v>
+        <v>968</v>
       </c>
     </row>
     <row r="16">
@@ -1664,16 +1664,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="C16" t="n">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="D16" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1682,65 +1682,65 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Production of Canola</t>
+          <t>Production of Grains</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Tonnes</t>
+          <t>Farm product price index (FPPI)</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="K16" t="n">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="L16" t="n">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="M16" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>56.00000000000001</v>
+        <v>93</v>
       </c>
       <c r="O16" t="n">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="P16" t="n">
+        <v>7.000000000000001</v>
+      </c>
+      <c r="Q16" t="n">
         <v>0</v>
       </c>
-      <c r="Q16" t="n">
-        <v>6</v>
-      </c>
       <c r="R16" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="S16" t="n">
         <v>35</v>
       </c>
       <c r="T16" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>canola oil production fluctuate significantly over short periods of time.</t>
+          <t>the graph illustrates the production of grains in canada in in 2016. the first few monthes till may the production fluctuate at around 1100. in june it starts to decrease a little bit and in july and august there is a massive drop. in september the graph keeps going decreasing and reach the annual minimum. the last monthes of the year the graph is increasing again.</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>canola oil production fluctuate significantly over short periods of time.</t>
+          <t>the graph illustrates the TKN_About  in canada in in  TKN_Year . the first few monthes till may the production fluctuate at around 93. in june it starts to decrease a little bit and in july and august there is a massive drop. in september the graph keeps going decreasing and reach the annual minimum. the last monthes of the year the graph is increasing again.</t>
         </is>
       </c>
       <c r="W16" t="n">
-        <v>1432136</v>
+        <v>1110</v>
       </c>
       <c r="X16" t="n">
-        <v>506704</v>
+        <v>968</v>
       </c>
     </row>
     <row r="17">
@@ -1748,13 +1748,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="C17" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
         <v>2017</v>
@@ -1766,65 +1766,65 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Production of Oats</t>
+          <t>Total vehicles entering Canada</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Tonnes</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="J17" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>26</v>
+      </c>
+      <c r="L17" t="n">
+        <v>36</v>
+      </c>
+      <c r="M17" t="n">
+        <v>45</v>
+      </c>
+      <c r="N17" t="n">
+        <v>57.99999999999999</v>
+      </c>
+      <c r="O17" t="n">
+        <v>88</v>
+      </c>
+      <c r="P17" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q17" t="n">
         <v>60</v>
       </c>
-      <c r="L17" t="n">
-        <v>21</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>13</v>
-      </c>
-      <c r="O17" t="n">
-        <v>22</v>
-      </c>
-      <c r="P17" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>100</v>
-      </c>
       <c r="R17" t="n">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="S17" t="n">
-        <v>56.99999999999999</v>
+        <v>30</v>
       </c>
       <c r="T17" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>oats produzed in canada in the year 2017.</t>
+          <t>the graph showes the total vehicles entering canada in 2017. the graph decreases in february. from february till august it starts to increase continously and reaches the maximum of over 3400000. from august till december the graph decrease continuslie till a total number of 2400000 in december.</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>oats produzed in canada in the year  TKN_Year .</t>
+          <t>the graph showes the TKN_About  in  TKN_Year . the graph decreases in february. from february till august it starts to increase continously and reaches the maximum of over 94. from august till december the graph decrease continuslie till a total TKN_UOM  of 28 in december.</t>
         </is>
       </c>
       <c r="W17" t="n">
-        <v>205171</v>
+        <v>3483738</v>
       </c>
       <c r="X17" t="n">
-        <v>64724</v>
+        <v>1985971</v>
       </c>
     </row>
     <row r="18">
@@ -1832,10 +1832,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>150</v>
+        <v>219</v>
       </c>
       <c r="C18" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D18" t="n">
         <v>5</v>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Production of Fresh potatoes</t>
+          <t>Production of Fresh fruit</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1859,56 +1859,56 @@
         </is>
       </c>
       <c r="I18" t="n">
+        <v>6</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>11</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
         <v>7.000000000000001</v>
       </c>
-      <c r="J18" t="n">
-        <v>9</v>
-      </c>
-      <c r="K18" t="n">
-        <v>14</v>
-      </c>
-      <c r="L18" t="n">
-        <v>14</v>
-      </c>
-      <c r="M18" t="n">
-        <v>17</v>
-      </c>
       <c r="N18" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="O18" t="n">
-        <v>54</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="P18" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="Q18" t="n">
+        <v>34</v>
+      </c>
+      <c r="R18" t="n">
         <v>39</v>
       </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="T18" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>it's clearly possible to see how the production of fresh potatoes in canada during 2017 maintained the same level for almost the whole year, but the summer months. during the summer months have been registered the highest values, in particular during august which was the highest peak of production. after that, the values dropped down form august to october.</t>
+          <t>the production of fresh fruit in canada during 2017 has been increasing over the year. even that, several fluctuations have been recorded, in particular during the first months of the year. the maximum values have been recorded during november and december. during the first months of the year, from january to may, have been recorded the minimum production values.</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>it's clearly possible to see how the TKN_About  in canada during  TKN_Year  maintained the same level for almost the whole year, but the summer months. during the summer months have been registered the highest values, in particular during august which was the highest peak of production. after that, the values dropped down form august to october.</t>
+          <t>the TKN_About  in canada during  TKN_Year  has been increasing over the year. even that, several fluctuations have been recorded, in particular during the first months of the year. the maximum values have been recorded during november and december. during the first months of the year, from january to may, have been recorded the minimum production values.</t>
         </is>
       </c>
       <c r="W18" t="n">
-        <v>1817</v>
+        <v>1198</v>
       </c>
       <c r="X18" t="n">
-        <v>1417</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="19">
@@ -1916,16 +1916,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>157</v>
+        <v>223</v>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1934,65 +1934,65 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Production of creamery butter</t>
+          <t>Total vehicles entering Canada</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Tonnes</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="J19" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="L19" t="n">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="M19" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N19" t="n">
-        <v>36</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="O19" t="n">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="P19" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="R19" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="S19" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="T19" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>a line chart about the production of creamery butter per tonnes in canada in the year 2018. the minimum value is reached in september and the maximum in january.</t>
+          <t>the total vehicle entering canada in 2017 were about 2000000 in jan and feb. then, they increased linearly until aug, reaching 3400000. the they decreased considerably to 2400000, almost back to where they started from.</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>a line chart about the TKN_About  per TKN_UOM  in canada in the year  TKN_Year . the minimum value is reached in september and the maximum in january.</t>
+          <t>the TKN_About  in  TKN_Year  were about 1 in jan and feb. then, they increased linearly until aug, reaching 94. the they decreased considerably to 28, almost back to where they started from.</t>
         </is>
       </c>
       <c r="W19" t="n">
-        <v>12767</v>
+        <v>3483738</v>
       </c>
       <c r="X19" t="n">
-        <v>7249</v>
+        <v>1985971</v>
       </c>
     </row>
     <row r="20">
@@ -2000,16 +2000,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>159</v>
+        <v>235</v>
       </c>
       <c r="C20" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D20" t="n">
         <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Import of creamery butter</t>
+          <t>Supply of creamery butter</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2030,53 +2030,53 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="K20" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="L20" t="n">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="M20" t="n">
+        <v>78</v>
+      </c>
+      <c r="N20" t="n">
+        <v>100</v>
+      </c>
+      <c r="O20" t="n">
+        <v>94</v>
+      </c>
+      <c r="P20" t="n">
+        <v>73</v>
+      </c>
+      <c r="Q20" t="n">
         <v>39</v>
       </c>
-      <c r="N20" t="n">
-        <v>38</v>
-      </c>
-      <c r="O20" t="n">
-        <v>20</v>
-      </c>
-      <c r="P20" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>37</v>
-      </c>
       <c r="R20" t="n">
-        <v>92</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="S20" t="n">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="T20" t="n">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>the graph shows the import of creamery butter (month vs. tonnes) in canada in 2016. first the rapid growth is observed in january, followed by a sharp decline in february. the import then raises slightly in march, remaining constant from april to june. falling slightly during june-august, it jumps high in august-november, with a small slip in december.</t>
+          <t>it's clearly possible to see how the supply of creamery butter in canada during 2018 rapidly increased from january over. in particular, it reached its peak during the month of june 2018. after that, it started to decline until september. the last three months of the year it remained quite stable.</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>the graph shows the TKN_About  (month vs. tonnes) in canada in  TKN_Year . first the rapid growth is observed in january, followed by a sharp decline in february. the import then raises slightly in march, remaining constant from april to june. falling slightly during june-august, it jumps high in august-november, with a small slip in december.</t>
+          <t>it's clearly possible to see how the TKN_About  in canada during  TKN_Year  rapidly increased from january over. in particular, it reached its peak during the month of june  TKN_Year . after that, it started to decline until september. the last three months of the year it remained quite stable.</t>
         </is>
       </c>
       <c r="W20" t="n">
-        <v>3057</v>
+        <v>54592</v>
       </c>
       <c r="X20" t="n">
-        <v>896</v>
+        <v>35090</v>
       </c>
     </row>
     <row r="21">
@@ -2084,13 +2084,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
         <v>2018</v>
@@ -2102,65 +2102,65 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>House and land price index</t>
+          <t>Supply of creamery butter</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Index 347</t>
+          <t>Tonnes</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="N21" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O21" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="P21" t="n">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="Q21" t="n">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="R21" t="n">
-        <v>100</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="S21" t="n">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="T21" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>the given graph shows the house and land price index development in canada in the year 2018, devided by month. the index started out at 1033 january and then decreased to 1031 in february and staying constant until may, giving way to a rise back to 1033 between may and july, again staying at 1033 dollars till the end of the year.</t>
+          <t>it shows the supply of creamery butter in canada during 2018. the values are described using tonnes as uom. it rapidly increase from january for the first half of the year. it reach its maximum value during the month of june. after that, it starts to decline til september. the supply of creamery butter fluctuated over the last few months of 2018.</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>the given graph shows TKN_About  TKN_UOM  development in canada in the year  TKN_Year , devided by month. the index started out at 100 january and then decreased to 0 in february and staying constant until may, giving way to a rise back to 100 between may and july, again staying at 100 dollars till the end of the year.</t>
+          <t>it shows the TKN_About  in canada during  TKN_Year . the values are described using TKN_UOM  as uom. it rapidly increase from january for the first half of the year. it reach its maximum value during the month of june. after that, it starts to decline til september. the TKN_About  fluctuated over the last few months of  TKN_Year .</t>
         </is>
       </c>
       <c r="W21" t="n">
-        <v>1033</v>
+        <v>54592</v>
       </c>
       <c r="X21" t="n">
-        <v>1031</v>
+        <v>35090</v>
       </c>
     </row>
     <row r="22">
@@ -2168,16 +2168,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>185</v>
+        <v>253</v>
       </c>
       <c r="C22" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -2186,65 +2186,65 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>House and land price index</t>
+          <t>Total softwood, production</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Index 347</t>
+          <t>Cubic metres</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="J22" t="n">
+        <v>43</v>
+      </c>
+      <c r="K22" t="n">
+        <v>100</v>
+      </c>
+      <c r="L22" t="n">
+        <v>68</v>
+      </c>
+      <c r="M22" t="n">
+        <v>92</v>
+      </c>
+      <c r="N22" t="n">
+        <v>66</v>
+      </c>
+      <c r="O22" t="n">
+        <v>29</v>
+      </c>
+      <c r="P22" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>56.99999999999999</v>
+      </c>
+      <c r="R22" t="n">
+        <v>81</v>
+      </c>
+      <c r="S22" t="n">
+        <v>78</v>
+      </c>
+      <c r="T22" t="n">
         <v>0</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>50</v>
-      </c>
-      <c r="O22" t="n">
-        <v>100</v>
-      </c>
-      <c r="P22" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>100</v>
-      </c>
-      <c r="R22" t="n">
-        <v>100</v>
-      </c>
-      <c r="S22" t="n">
-        <v>100</v>
-      </c>
-      <c r="T22" t="n">
-        <v>100</v>
-      </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>the graph shows the house and land price index in canada in the year of 2018. it is striking that the value only changes twice a year. it falls from january to february, and from may to july it rises back to the original amount of 1033. for the rest of the year, the value remains constant.</t>
+          <t>the total softwoord production in canada during 2017 considerably oscillated up and down over the year.  the maximum value was recorded in may 2017. but at the same time, two other peaks were in may and october. the minimum value over the whole 2017 was during december 2017, with less than 48000 cubic metres producted.</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>the graph shows TKN_About  TKN_UOM  in canada in the year of  TKN_Year . it is striking that the value only changes twice a year. it falls from january to february, and from may to july it rises back to the original amount of 100. for the rest of the year, the value remains constant.</t>
+          <t>the TKN_About  in canada during  TKN_Year  considerably oscillated up and down over the year.  the maximum value was recorded in may  TKN_Year . but at the same time, two other peaks were in may and october. the minimum value over the whole  TKN_Year  was during december  TKN_Year , with less than 9 TKN_UOM  producted.</t>
         </is>
       </c>
       <c r="W22" t="n">
-        <v>1033</v>
+        <v>59120</v>
       </c>
       <c r="X22" t="n">
-        <v>1031</v>
+        <v>46885</v>
       </c>
     </row>
     <row r="23">
@@ -2252,16 +2252,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -2270,65 +2270,65 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Supply of creamery butter</t>
+          <t>Total hardwood, production</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Tonnes</t>
+          <t>Cubic metres</t>
         </is>
       </c>
       <c r="I23" t="n">
+        <v>64</v>
+      </c>
+      <c r="J23" t="n">
+        <v>53</v>
+      </c>
+      <c r="K23" t="n">
+        <v>91</v>
+      </c>
+      <c r="L23" t="n">
+        <v>74</v>
+      </c>
+      <c r="M23" t="n">
+        <v>100</v>
+      </c>
+      <c r="N23" t="n">
+        <v>92</v>
+      </c>
+      <c r="O23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>40</v>
-      </c>
-      <c r="K23" t="n">
-        <v>36</v>
-      </c>
-      <c r="L23" t="n">
-        <v>64</v>
-      </c>
-      <c r="M23" t="n">
-        <v>86</v>
-      </c>
-      <c r="N23" t="n">
-        <v>88</v>
-      </c>
-      <c r="O23" t="n">
-        <v>100</v>
-      </c>
       <c r="P23" t="n">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="Q23" t="n">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="R23" t="n">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="S23" t="n">
-        <v>57.99999999999999</v>
+        <v>59</v>
       </c>
       <c r="T23" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>it shows the data about supply of creamery butter in canada during 2016. the displayed values are in tones. it's possible to see how the value rapidly increase from january over, reaching its peaks during the month of july with approximately 29000 tonnes. after that, the values decrease until september and then rise up again during last 3 months of the year.</t>
+          <t>this figure depicts the total canadian hardwood production in cubic metres of 2018. whereas it starts off in january at approximately 1050 cubic metres, production fluctuates until reaching its maximum in may at around 1250. there is a sudden drop, reaching the minimum annual value in july at below 800 cubic metres. production then again rises from july until october and experiences a drop from october until december.</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>it shows the data about TKN_About  in canada during  TKN_Year . the displayed values are in tones. it's possible to see how the value rapidly increase from january over, reaching its peaks during the month of july with approximately 101 tonnes. after that, the values decrease until september and then rise up again during last 3 months of the year.</t>
+          <t>this figure depicts the TKN_About  in TKN_UOM  of  TKN_Year . whereas it starts off in january at approximately 63 TKN_UOM , production fluctuates until reaching its maximum in may at around 104. there is a sudden drop, reaching the minimum annual value in july at below 11 TKN_UOM . production then again rises from july until october and experiences a drop from october until december.</t>
         </is>
       </c>
       <c r="W23" t="n">
-        <v>28901</v>
+        <v>1231</v>
       </c>
       <c r="X23" t="n">
-        <v>20923</v>
+        <v>745</v>
       </c>
     </row>
     <row r="24">
@@ -2336,83 +2336,83 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>216</v>
+        <v>264</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="D24" t="n">
+        <v>8</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2016</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Total United States vehicles entering</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Number</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>1</v>
       </c>
-      <c r="E24" t="n">
-        <v>2017</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Total hardwood, production</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Cubic metres</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>4</v>
-      </c>
-      <c r="J24" t="n">
-        <v>34</v>
-      </c>
       <c r="K24" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="L24" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M24" t="n">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="N24" t="n">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P24" t="n">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.99999999999999</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="R24" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="S24" t="n">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="T24" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>the graph is showing the production's trend of total hardwood in canada during 2017. the values are in cubic metres. it's clearly possible to see how the values are strongly fluctuating over the year. there are several peaks, in particular during march, may and novembe. at the same time, the minimum values have been recorded during the months of january, july and august.</t>
+          <t>this graph depicts the total number of united states vehicles entering in canada during 2016. the lowest number of vehicles is observed in january, at approximately 640000. during the following months numbers of entering vehicles steadily increase until reaching the maximum number the year 2016 in july with approximately 1250000. from july until november a sharp drop is experienced, with numbers of around 700000 in november. the number hardly changes in december.</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>the graph is showing the production's trend TKN_About  hardwood in canada during  TKN_Year . the values are TKN_UOM  metres. it's clearly possible to see how the values are strongly fluctuating over the year. there are several peaks, in particular during march, may and novembe. at the same time, the minimum values have been recorded during the months of january, july and august.</t>
+          <t>this graph depicts the total TKN_UOM  of TKN_About  in canada during  TKN_Year . the lowest TKN_UOM  of vehicles is observed in january, at approximately 1. during the following months TKN_UOM s of entering vehicles steadily increase until reaching the maximum TKN_UOM  the year  TKN_Year  in july with approximately 101. from july until november a sharp drop is experienced, with TKN_UOM s of around 11 in november. the TKN_UOM  hardly changes in december.</t>
         </is>
       </c>
       <c r="W24" t="n">
-        <v>1506</v>
+        <v>1241519</v>
       </c>
       <c r="X24" t="n">
-        <v>1051</v>
+        <v>635038</v>
       </c>
     </row>
     <row r="25">
@@ -2420,10 +2420,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="C25" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D25" t="n">
         <v>5</v>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Production of Fresh potatoes</t>
+          <t>Production of Fresh fruit</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2447,56 +2447,56 @@
         </is>
       </c>
       <c r="I25" t="n">
+        <v>6</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>11</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="n">
         <v>7.000000000000001</v>
       </c>
-      <c r="J25" t="n">
-        <v>9</v>
-      </c>
-      <c r="K25" t="n">
-        <v>14</v>
-      </c>
-      <c r="L25" t="n">
-        <v>14</v>
-      </c>
-      <c r="M25" t="n">
-        <v>17</v>
-      </c>
       <c r="N25" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="O25" t="n">
-        <v>54</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="P25" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="Q25" t="n">
+        <v>34</v>
+      </c>
+      <c r="R25" t="n">
         <v>39</v>
       </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="T25" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>the production of fresh potatoes in canada 2017 shows the highest values during the summer months. in particular, the production reports its maximum value during the month of august. it remain quite steady during the other months of the year. the minimum value was during october 2017.</t>
+          <t>the production of fresh fruit in canada clearly showed an ascendant trend during 2017. the values have been oscillating up and down several times over the year, even if the trend kept growing up. the production reached its maximum value during the month of december, and its minimum values during the first months of the year.</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>the TKN_About  in canada  TKN_Year  shows the highest values during the summer months. in particular, the production reports its maximum value during the month of august. it remain quite steady during the other months of the year. the minimum value was during october  TKN_Year .</t>
+          <t>the TKN_About  in canada clearly showed an ascendant trend during  TKN_Year . the values have been oscillating up and down several times over the year, even if the trend kept growing up. the production reached its maximum value during the month of december, and its minimum values during the first months of the year.</t>
         </is>
       </c>
       <c r="W25" t="n">
-        <v>1817</v>
+        <v>1198</v>
       </c>
       <c r="X25" t="n">
-        <v>1417</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="26">
@@ -2504,16 +2504,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="C26" t="n">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="D26" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -2522,569 +2522,65 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Production of Oats</t>
+          <t>Production of Grains</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Tonnes</t>
+          <t>Farm product price index (FPPI)</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="J26" t="n">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="K26" t="n">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="L26" t="n">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="M26" t="n">
+        <v>100</v>
+      </c>
+      <c r="N26" t="n">
+        <v>93</v>
+      </c>
+      <c r="O26" t="n">
+        <v>61</v>
+      </c>
+      <c r="P26" t="n">
+        <v>7.000000000000001</v>
+      </c>
+      <c r="Q26" t="n">
         <v>0</v>
       </c>
-      <c r="N26" t="n">
-        <v>13</v>
-      </c>
-      <c r="O26" t="n">
-        <v>22</v>
-      </c>
-      <c r="P26" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>100</v>
-      </c>
       <c r="R26" t="n">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="S26" t="n">
-        <v>56.99999999999999</v>
+        <v>35</v>
       </c>
       <c r="T26" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>the production of oats strongly fluctuated over the 2017 in canada. it doesn't really have an ascendant or descendant trend. the most significant dip has been recorded in may. the most considerable peak was recorded in september 2017.</t>
+          <t>it's clearly possible to see from this graph how the production of grains in canada had a big drop from june to august 2016. during the first few months, from january to june, the value remained quite stable. but then it dramatically dropped down. even that, during the last few months of the year the production of value slightly started to grow up again.</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>the TKN_About  strongly fluctuated over the  TKN_Year  in canada. it doesn't really have an ascendant or descendant trend. the most significant dip has been recorded in may. the most considerable peak was recorded in september  TKN_Year .</t>
+          <t>it's clearly possible to see from this graph how the TKN_About  in canada had a big drop from june to august  TKN_Year . during the first few months, from january to june, the value remained quite stable. but then it dramatically dropped down. even that, during the last few months of the year the production of value slightly started to grow up again.</t>
         </is>
       </c>
       <c r="W26" t="n">
-        <v>205171</v>
+        <v>1110</v>
       </c>
       <c r="X26" t="n">
-        <v>64724</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>268</v>
-      </c>
-      <c r="C27" t="n">
-        <v>43</v>
-      </c>
-      <c r="D27" t="n">
-        <v>5</v>
-      </c>
-      <c r="E27" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Production of Unprocessed milk</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Farm product price index (FPPI)</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>35</v>
-      </c>
-      <c r="J27" t="n">
-        <v>19</v>
-      </c>
-      <c r="K27" t="n">
-        <v>13</v>
-      </c>
-      <c r="L27" t="n">
-        <v>7.000000000000001</v>
-      </c>
-      <c r="M27" t="n">
-        <v>7.000000000000001</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>6</v>
-      </c>
-      <c r="P27" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>57.99999999999999</v>
-      </c>
-      <c r="R27" t="n">
-        <v>77</v>
-      </c>
-      <c r="S27" t="n">
-        <v>100</v>
-      </c>
-      <c r="T27" t="n">
-        <v>80</v>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>the production of unprocessed milk in canada has been substantially growing over 2018. in particular, during the first few months of the year the values have been slightly decreasing. but then from june over it rapidly increased, reaching it peaks on november 2018. the minimum production value during 2018 has been reported during june.</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>the TKN_About  in canada has been substantially growing over  TKN_Year . in particular, during the first few months of the year the values have been slightly decreasing. but then from june over it rapidly increased, reaching it peaks on november  TKN_Year . the minimum production value during  TKN_Year  has been reported during june.</t>
-        </is>
-      </c>
-      <c r="W27" t="n">
-        <v>1140</v>
-      </c>
-      <c r="X27" t="n">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>273</v>
-      </c>
-      <c r="C28" t="n">
-        <v>26</v>
-      </c>
-      <c r="D28" t="n">
-        <v>3</v>
-      </c>
-      <c r="E28" t="n">
-        <v>2016</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Import of creamery butter</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>49</v>
-      </c>
-      <c r="K28" t="n">
-        <v>22</v>
-      </c>
-      <c r="L28" t="n">
-        <v>37</v>
-      </c>
-      <c r="M28" t="n">
-        <v>39</v>
-      </c>
-      <c r="N28" t="n">
-        <v>38</v>
-      </c>
-      <c r="O28" t="n">
-        <v>20</v>
-      </c>
-      <c r="P28" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>37</v>
-      </c>
-      <c r="R28" t="n">
-        <v>92</v>
-      </c>
-      <c r="S28" t="n">
-        <v>100</v>
-      </c>
-      <c r="T28" t="n">
-        <v>84</v>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>it's possible to see how the import value of creamery butter in canada presented several fluctuations over the year. in particular during the first few months different peaks and dips have been recorded. then the import value rapidly increased from august to november. it reached its maximum value during the month of november. the minimum value was in january 2016.</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>it's possible to see how the TKN_About  in canada presented several fluctuations over the year. in particular during the first few months different peaks and dips have been recorded. then the import value rapidly increased from august to november. it reached its maximum value during the month of november. the minimum value was in january  TKN_Year .</t>
-        </is>
-      </c>
-      <c r="W28" t="n">
-        <v>3057</v>
-      </c>
-      <c r="X28" t="n">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>275</v>
-      </c>
-      <c r="C29" t="n">
-        <v>43</v>
-      </c>
-      <c r="D29" t="n">
-        <v>5</v>
-      </c>
-      <c r="E29" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Production of Unprocessed milk</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Farm product price index (FPPI)</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>35</v>
-      </c>
-      <c r="J29" t="n">
-        <v>19</v>
-      </c>
-      <c r="K29" t="n">
-        <v>13</v>
-      </c>
-      <c r="L29" t="n">
-        <v>7.000000000000001</v>
-      </c>
-      <c r="M29" t="n">
-        <v>7.000000000000001</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>6</v>
-      </c>
-      <c r="P29" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>57.99999999999999</v>
-      </c>
-      <c r="R29" t="n">
-        <v>77</v>
-      </c>
-      <c r="S29" t="n">
-        <v>100</v>
-      </c>
-      <c r="T29" t="n">
-        <v>80</v>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>this graph depicts the production of unprocessed milk in canada during 2018. the given unit is the farm product price index (fppi). the graph represents a parable throughout the year. it starts at 1050 during january, after which a steady decline can be observed, reaching the lowest production value in june at 1003. during the following months production rapidly increases until the maximum is reached in november at approximately 1140. there is a small decrease in december.</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>this graph depicts the TKN_About  in canada during  TKN_Year . the given unit is TKN_UOM  (fppi). the graph represents a parable throughout the year. it starts at 34 during january, after which a steady decline can be observed, reaching the lowest production value in june at 0. during the following months production rapidly increases until the maximum is reached in november at approximately 100. there is a small decrease in december.</t>
-        </is>
-      </c>
-      <c r="W29" t="n">
-        <v>1140</v>
-      </c>
-      <c r="X29" t="n">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>283</v>
-      </c>
-      <c r="C30" t="n">
-        <v>88</v>
-      </c>
-      <c r="D30" t="n">
-        <v>9</v>
-      </c>
-      <c r="E30" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Production of Canola</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>69</v>
-      </c>
-      <c r="J30" t="n">
-        <v>6</v>
-      </c>
-      <c r="K30" t="n">
-        <v>36</v>
-      </c>
-      <c r="L30" t="n">
-        <v>45</v>
-      </c>
-      <c r="M30" t="n">
-        <v>34</v>
-      </c>
-      <c r="N30" t="n">
-        <v>56.00000000000001</v>
-      </c>
-      <c r="O30" t="n">
-        <v>13</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>6</v>
-      </c>
-      <c r="R30" t="n">
-        <v>100</v>
-      </c>
-      <c r="S30" t="n">
-        <v>35</v>
-      </c>
-      <c r="T30" t="n">
-        <v>47</v>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>this graph represents the canadian production of canola in 2018. the given unit are tonnes. production starts off at approximately 1150000 during january, after which a sharp decline is observed during february, reaching below 600000. production fluctuates between march and june, after which a rapid decline takes place again, reaching the lowest production values of the year in august at 500000. staying mostly constant in september, there is a significant rise peaking in october above 1400000. production of canola declines again during november, and hardly changes for december at around 900000.</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>this graph represents the canadian TKN_About  in  TKN_Year . the given unit are tonnes. production starts off at approximately 70 during january, after which a sharp decline is observed during february, reaching below 10. production fluctuates between march and june, after which a rapid decline takes place again, reaching the lowest production values of the year in august at -1. staying mostly constant in september, there is a significant rise peaking in october above 97. TKN_About  declines again during november, and hardly changes for december at around 42.</t>
-        </is>
-      </c>
-      <c r="W30" t="n">
-        <v>1432136</v>
-      </c>
-      <c r="X30" t="n">
-        <v>506704</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>300</v>
-      </c>
-      <c r="C31" t="n">
-        <v>20</v>
-      </c>
-      <c r="D31" t="n">
-        <v>3</v>
-      </c>
-      <c r="E31" t="n">
-        <v>2016</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Supply of creamery butter</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>40</v>
-      </c>
-      <c r="K31" t="n">
-        <v>36</v>
-      </c>
-      <c r="L31" t="n">
-        <v>64</v>
-      </c>
-      <c r="M31" t="n">
-        <v>86</v>
-      </c>
-      <c r="N31" t="n">
-        <v>88</v>
-      </c>
-      <c r="O31" t="n">
-        <v>100</v>
-      </c>
-      <c r="P31" t="n">
-        <v>62</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>27</v>
-      </c>
-      <c r="R31" t="n">
-        <v>28</v>
-      </c>
-      <c r="S31" t="n">
-        <v>57.99999999999999</v>
-      </c>
-      <c r="T31" t="n">
-        <v>43</v>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>this graph represents the canadian supply of creamery butter (in tonnes) during 2016. the lowest value can be observed in january with 21000 tonnes. supply increases during february, remains almost unchanged throughout march and sharply increases during the following months until it reaches its peak in july with 29000 tonnes. there is a sharp decline in supply of creamery butter from july until september. the supply remains stable during october and experiences a small rise during november.</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>this graph represents the canadian TKN_About  (in tonnes) during  TKN_Year . the lowest value can be observed in january with 1 tonnes. supply increases during february, remains almost unchanged throughout march and sharply increases during the following months until it reaches its peak in july with 101 tonnes. there is a sharp decline in TKN_About  from july until september. the supply remains stable during october and experiences a small rise during november.</t>
-        </is>
-      </c>
-      <c r="W31" t="n">
-        <v>28901</v>
-      </c>
-      <c r="X31" t="n">
-        <v>20923</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>301</v>
-      </c>
-      <c r="C32" t="n">
-        <v>25</v>
-      </c>
-      <c r="D32" t="n">
-        <v>3</v>
-      </c>
-      <c r="E32" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Production of creamery butter</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>100</v>
-      </c>
-      <c r="J32" t="n">
-        <v>64</v>
-      </c>
-      <c r="K32" t="n">
-        <v>76</v>
-      </c>
-      <c r="L32" t="n">
-        <v>98</v>
-      </c>
-      <c r="M32" t="n">
-        <v>51</v>
-      </c>
-      <c r="N32" t="n">
-        <v>36</v>
-      </c>
-      <c r="O32" t="n">
-        <v>8</v>
-      </c>
-      <c r="P32" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>40</v>
-      </c>
-      <c r="S32" t="n">
-        <v>13</v>
-      </c>
-      <c r="T32" t="n">
-        <v>38</v>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>the production of creamery butter in canada reported a not homogeneous trend over 2018. the maximum value was recorded during january. after that, several oscillations have been recorded over the year. in particular, a big drop was recorded between the months of april and june. the value keep fluactuating over the last few months of the year.</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>the TKN_About  in canada reported a not homogeneous trend over  TKN_Year . the maximum value was recorded during january. after that, several oscillations have been recorded over the year. in particular, a big drop was recorded between the months of april and june. the value keep fluactuating over the last few months of the year.</t>
-        </is>
-      </c>
-      <c r="W32" t="n">
-        <v>12767</v>
-      </c>
-      <c r="X32" t="n">
-        <v>7249</v>
+        <v>968</v>
       </c>
     </row>
   </sheetData>
